--- a/Ethiopia Workspace/Code and Control Files/AHLE scenario parameters SMALLRUMINANTS_20230504.xlsx
+++ b/Ethiopia Workspace/Code and Control Files/AHLE scenario parameters SMALLRUMINANTS_20230504.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wtemesgen\OneDrive - CGIAR\Documents\GBADs\Eth and UoL\small ruminant\AHLE\SR AHLE 2023\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\First Analytics\Clients\University of Liverpool\GBADs Github\GBADsLiverpool\Ethiopia Workspace\Code and Control Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E519D440-C325-4B1D-BF8C-289E8A63F804}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98FFCB95-D49D-40A3-8E92-17BF6F4C58C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{7B09E95E-6D5F-461A-A5DC-5B71F2D22658}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17790" xr2:uid="{7B09E95E-6D5F-461A-A5DC-5B71F2D22658}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1259,31 +1259,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 3, 1.3, 0.15)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>rtruncnorm(10000,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
       <t xml:space="preserve"> 1</t>
     </r>
     <r>
@@ -1603,6 +1578,9 @@
       </rPr>
       <t>, 45, 29)</t>
     </r>
+  </si>
+  <si>
+    <t>rtruncnorm(10000,1, 3, 1.3, 0.15)</t>
   </si>
 </sst>
 </file>
@@ -1781,7 +1759,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1852,7 +1830,6 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="2" fontId="4" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="4" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="4" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -2179,28 +2156,28 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="60" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D21" sqref="D21"/>
+      <selection pane="bottomLeft" activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.81640625" style="9" customWidth="1"/>
-    <col min="2" max="2" width="12.54296875" customWidth="1"/>
-    <col min="3" max="3" width="26.6328125" customWidth="1"/>
-    <col min="4" max="4" width="22.1796875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="23.1796875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="29.453125" style="4" customWidth="1"/>
-    <col min="7" max="7" width="26.54296875" customWidth="1"/>
-    <col min="8" max="8" width="23.81640625" customWidth="1"/>
-    <col min="9" max="9" width="23.7265625" customWidth="1"/>
+    <col min="1" max="1" width="29.85546875" style="9" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" customWidth="1"/>
+    <col min="3" max="3" width="48.5703125" customWidth="1"/>
+    <col min="4" max="4" width="22.140625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="38.42578125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="29.42578125" style="4" customWidth="1"/>
+    <col min="7" max="7" width="26.5703125" customWidth="1"/>
+    <col min="8" max="8" width="23.85546875" customWidth="1"/>
+    <col min="9" max="9" width="23.7109375" customWidth="1"/>
     <col min="10" max="10" width="23" customWidth="1"/>
     <col min="11" max="11" width="16" customWidth="1"/>
     <col min="12" max="12" width="26" style="5" customWidth="1"/>
-    <col min="13" max="13" width="24.6328125" customWidth="1"/>
-    <col min="14" max="14" width="16.1796875" customWidth="1"/>
+    <col min="13" max="13" width="24.5703125" customWidth="1"/>
+    <col min="14" max="14" width="16.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>73</v>
       </c>
@@ -2244,7 +2221,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>147</v>
       </c>
@@ -2285,7 +2262,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>0</v>
       </c>
@@ -2302,7 +2279,7 @@
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>148</v>
       </c>
@@ -2346,7 +2323,7 @@
         <v>2931658</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>200</v>
       </c>
@@ -2390,7 +2367,7 @@
         <v>1974212</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>149</v>
       </c>
@@ -2434,7 +2411,7 @@
         <v>2563862</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>150</v>
       </c>
@@ -2478,7 +2455,7 @@
         <v>1533797</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>151</v>
       </c>
@@ -2522,7 +2499,7 @@
         <v>15741790</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>152</v>
       </c>
@@ -2566,7 +2543,7 @@
         <v>5555576</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C10" s="12"/>
       <c r="D10" s="12"/>
       <c r="E10" s="12"/>
@@ -2580,7 +2557,7 @@
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
         <v>7</v>
       </c>
@@ -2601,7 +2578,7 @@
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
         <v>153</v>
       </c>
@@ -2645,7 +2622,7 @@
         <v>0.16666666666666666</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C13" s="12"/>
       <c r="D13" s="12"/>
       <c r="E13" s="12"/>
@@ -2659,7 +2636,7 @@
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
         <v>8</v>
       </c>
@@ -2676,7 +2653,7 @@
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
         <v>154</v>
       </c>
@@ -2717,48 +2694,48 @@
         <v>96</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
         <v>155</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>267</v>
+        <v>280</v>
       </c>
       <c r="D16" s="39" t="s">
         <v>75</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F16" s="20" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="G16" s="40" t="s">
         <v>113</v>
       </c>
       <c r="H16" s="23" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I16" s="12" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="J16" s="43" t="s">
         <v>134</v>
       </c>
       <c r="K16" s="12" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="M16" s="41" t="s">
         <v>146</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C17" s="12"/>
       <c r="D17" s="12"/>
       <c r="E17" s="12"/>
@@ -2772,7 +2749,7 @@
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
         <v>9</v>
       </c>
@@ -2789,7 +2766,7 @@
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
         <v>156</v>
       </c>
@@ -2830,7 +2807,7 @@
         <v>0.19</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
         <v>203</v>
       </c>
@@ -2874,7 +2851,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
         <v>157</v>
       </c>
@@ -2915,7 +2892,7 @@
         <v>0.44</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
         <v>158</v>
       </c>
@@ -2956,7 +2933,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C23" s="12"/>
       <c r="D23" s="12"/>
       <c r="E23" s="12"/>
@@ -2976,7 +2953,7 @@
       <c r="M23" s="36"/>
       <c r="N23" s="36"/>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="s">
         <v>10</v>
       </c>
@@ -2993,7 +2970,7 @@
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="s">
         <v>11</v>
       </c>
@@ -3010,7 +2987,7 @@
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
         <v>12</v>
       </c>
@@ -3027,7 +3004,7 @@
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="9" t="s">
         <v>159</v>
       </c>
@@ -3074,7 +3051,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="9" t="s">
         <v>160</v>
       </c>
@@ -3121,7 +3098,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C29" s="12"/>
       <c r="D29" s="12"/>
       <c r="E29" s="12"/>
@@ -3135,7 +3112,7 @@
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="9" t="s">
         <v>15</v>
       </c>
@@ -3152,7 +3129,7 @@
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="9" t="s">
         <v>161</v>
       </c>
@@ -3196,7 +3173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="9" t="s">
         <v>162</v>
       </c>
@@ -3221,7 +3198,7 @@
       <c r="H32" s="20">
         <v>0</v>
       </c>
-      <c r="I32" s="44" t="s">
+      <c r="I32" s="12" t="s">
         <v>77</v>
       </c>
       <c r="J32" s="12">
@@ -3240,7 +3217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="9" t="s">
         <v>163</v>
       </c>
@@ -3265,7 +3242,7 @@
       <c r="H33" s="20">
         <v>0</v>
       </c>
-      <c r="I33" s="44" t="s">
+      <c r="I33" s="12" t="s">
         <v>78</v>
       </c>
       <c r="J33" s="12">
@@ -3284,7 +3261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="9" t="s">
         <v>164</v>
       </c>
@@ -3309,7 +3286,7 @@
       <c r="H34" s="20">
         <v>0</v>
       </c>
-      <c r="I34" s="44" t="s">
+      <c r="I34" s="12" t="s">
         <v>79</v>
       </c>
       <c r="J34" s="12">
@@ -3328,7 +3305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C35" s="12"/>
       <c r="D35" s="12"/>
       <c r="E35" s="12"/>
@@ -3342,7 +3319,7 @@
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" s="9" t="s">
         <v>20</v>
       </c>
@@ -3359,7 +3336,7 @@
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" s="9" t="s">
         <v>165</v>
       </c>
@@ -3406,7 +3383,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" s="9" t="s">
         <v>166</v>
       </c>
@@ -3453,7 +3430,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C39" s="12"/>
       <c r="D39" s="12"/>
       <c r="E39" s="12"/>
@@ -3467,7 +3444,7 @@
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" s="9" t="s">
         <v>23</v>
       </c>
@@ -3484,7 +3461,7 @@
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C41" s="12"/>
       <c r="D41" s="12"/>
       <c r="E41" s="12"/>
@@ -3498,7 +3475,7 @@
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" s="9" t="s">
         <v>24</v>
       </c>
@@ -3515,7 +3492,7 @@
       <c r="M42" s="2"/>
       <c r="N42" s="2"/>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" s="9" t="s">
         <v>167</v>
       </c>
@@ -3544,7 +3521,7 @@
         <v>80</v>
       </c>
       <c r="J43" s="43" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="K43" s="12" t="s">
         <v>80</v>
@@ -3553,13 +3530,13 @@
         <v>138</v>
       </c>
       <c r="M43" s="41" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="N43" s="2" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" s="9" t="s">
         <v>168</v>
       </c>
@@ -3588,7 +3565,7 @@
         <v>80</v>
       </c>
       <c r="J44" s="43" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="K44" s="12" t="s">
         <v>80</v>
@@ -3603,7 +3580,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" s="9" t="s">
         <v>169</v>
       </c>
@@ -3623,7 +3600,7 @@
         <v>105</v>
       </c>
       <c r="G45" s="40" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="H45" s="20" t="s">
         <v>105</v>
@@ -3631,7 +3608,7 @@
       <c r="I45" s="12" t="s">
         <v>128</v>
       </c>
-      <c r="J45" s="45" t="s">
+      <c r="J45" s="44" t="s">
         <v>128</v>
       </c>
       <c r="K45" s="12" t="s">
@@ -3647,7 +3624,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" s="9" t="s">
         <v>170</v>
       </c>
@@ -3675,7 +3652,7 @@
       <c r="I46" s="12" t="s">
         <v>128</v>
       </c>
-      <c r="J46" s="45" t="s">
+      <c r="J46" s="44" t="s">
         <v>128</v>
       </c>
       <c r="K46" s="12" t="s">
@@ -3691,7 +3668,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" s="9" t="s">
         <v>171</v>
       </c>
@@ -3711,7 +3688,7 @@
         <v>106</v>
       </c>
       <c r="G47" s="40" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H47" s="20" t="s">
         <v>106</v>
@@ -3719,7 +3696,7 @@
       <c r="I47" s="12" t="s">
         <v>129</v>
       </c>
-      <c r="J47" s="45" t="s">
+      <c r="J47" s="44" t="s">
         <v>129</v>
       </c>
       <c r="K47" s="12" t="s">
@@ -3729,13 +3706,13 @@
         <v>140</v>
       </c>
       <c r="M47" s="41" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="N47" s="2" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48" s="9" t="s">
         <v>172</v>
       </c>
@@ -3755,7 +3732,7 @@
         <v>107</v>
       </c>
       <c r="G48" s="40" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H48" s="20" t="s">
         <v>107</v>
@@ -3763,7 +3740,7 @@
       <c r="I48" s="12" t="s">
         <v>130</v>
       </c>
-      <c r="J48" s="45" t="s">
+      <c r="J48" s="44" t="s">
         <v>130</v>
       </c>
       <c r="K48" s="12" t="s">
@@ -3773,13 +3750,13 @@
         <v>140</v>
       </c>
       <c r="M48" s="41" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="N48" s="2" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C49" s="12"/>
       <c r="D49" s="12"/>
       <c r="E49" s="12"/>
@@ -3793,7 +3770,7 @@
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50" s="9" t="s">
         <v>30</v>
       </c>
@@ -3810,7 +3787,7 @@
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A51" s="9" t="s">
         <v>173</v>
       </c>
@@ -3854,7 +3831,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C52" s="12"/>
       <c r="D52" s="12"/>
       <c r="E52" s="12"/>
@@ -3868,7 +3845,7 @@
       <c r="M52" s="2"/>
       <c r="N52" s="2"/>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A53" s="9" t="s">
         <v>32</v>
       </c>
@@ -3885,7 +3862,7 @@
       <c r="M53" s="2"/>
       <c r="N53" s="2"/>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A54" s="9" t="s">
         <v>33</v>
       </c>
@@ -3902,7 +3879,7 @@
       <c r="M54" s="2"/>
       <c r="N54" s="2"/>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55" s="9" t="s">
         <v>174</v>
       </c>
@@ -3930,7 +3907,7 @@
       <c r="I55" s="12" t="s">
         <v>236</v>
       </c>
-      <c r="J55" s="46" t="s">
+      <c r="J55" s="45" t="s">
         <v>241</v>
       </c>
       <c r="K55" s="12" t="s">
@@ -3946,7 +3923,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A56" s="9" t="s">
         <v>175</v>
       </c>
@@ -3974,7 +3951,7 @@
       <c r="I56" s="12" t="s">
         <v>237</v>
       </c>
-      <c r="J56" s="46" t="s">
+      <c r="J56" s="45" t="s">
         <v>243</v>
       </c>
       <c r="K56" s="12" t="s">
@@ -3990,7 +3967,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A57" s="9" t="s">
         <v>176</v>
       </c>
@@ -4018,7 +3995,7 @@
       <c r="I57" s="16" t="s">
         <v>238</v>
       </c>
-      <c r="J57" s="46" t="s">
+      <c r="J57" s="45" t="s">
         <v>244</v>
       </c>
       <c r="K57" s="16" t="s">
@@ -4027,14 +4004,14 @@
       <c r="L57" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="M57" s="47" t="s">
+      <c r="M57" s="46" t="s">
         <v>254</v>
       </c>
       <c r="N57" s="2" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A58" s="9" t="s">
         <v>177</v>
       </c>
@@ -4062,7 +4039,7 @@
       <c r="I58" s="12" t="s">
         <v>236</v>
       </c>
-      <c r="J58" s="46" t="s">
+      <c r="J58" s="45" t="s">
         <v>242</v>
       </c>
       <c r="K58" s="12" t="s">
@@ -4078,7 +4055,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A59" s="9" t="s">
         <v>178</v>
       </c>
@@ -4106,7 +4083,7 @@
       <c r="I59" s="12" t="s">
         <v>239</v>
       </c>
-      <c r="J59" s="46" t="s">
+      <c r="J59" s="45" t="s">
         <v>245</v>
       </c>
       <c r="K59" s="12" t="s">
@@ -4122,7 +4099,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A60" s="9" t="s">
         <v>179</v>
       </c>
@@ -4150,7 +4127,7 @@
       <c r="I60" s="12" t="s">
         <v>240</v>
       </c>
-      <c r="J60" s="46" t="s">
+      <c r="J60" s="45" t="s">
         <v>246</v>
       </c>
       <c r="K60" s="12" t="s">
@@ -4166,7 +4143,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C61" s="12"/>
       <c r="D61" s="12"/>
       <c r="E61" s="12"/>
@@ -4180,7 +4157,7 @@
       <c r="M61" s="2"/>
       <c r="N61" s="2"/>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A62" s="9" t="s">
         <v>40</v>
       </c>
@@ -4197,7 +4174,7 @@
       <c r="M62" s="2"/>
       <c r="N62" s="2"/>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A63" s="9" t="s">
         <v>201</v>
       </c>
@@ -4220,7 +4197,7 @@
       <c r="M63" s="2"/>
       <c r="N63" s="2"/>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C64" s="12"/>
       <c r="D64" s="12"/>
       <c r="E64" s="12"/>
@@ -4234,7 +4211,7 @@
       <c r="M64" s="2"/>
       <c r="N64" s="2"/>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A65" s="9" t="s">
         <v>41</v>
       </c>
@@ -4251,7 +4228,7 @@
       <c r="M65" s="2"/>
       <c r="N65" s="2"/>
     </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A66" s="9" t="s">
         <v>42</v>
       </c>
@@ -4268,7 +4245,7 @@
       <c r="M66" s="2"/>
       <c r="N66" s="2"/>
     </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A67" s="9" t="s">
         <v>180</v>
       </c>
@@ -4312,7 +4289,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A68" s="9" t="s">
         <v>181</v>
       </c>
@@ -4353,7 +4330,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C69" s="12"/>
       <c r="D69" s="12"/>
       <c r="E69" s="12"/>
@@ -4367,7 +4344,7 @@
       <c r="M69" s="2"/>
       <c r="N69" s="2"/>
     </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A70" s="9" t="s">
         <v>44</v>
       </c>
@@ -4384,7 +4361,7 @@
       <c r="M70" s="2"/>
       <c r="N70" s="2"/>
     </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A71" s="9" t="s">
         <v>182</v>
       </c>
@@ -4425,7 +4402,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C72" s="12"/>
       <c r="D72" s="12"/>
       <c r="E72" s="12"/>
@@ -4439,7 +4416,7 @@
       <c r="M72" s="2"/>
       <c r="N72" s="2"/>
     </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A73" s="9" t="s">
         <v>45</v>
       </c>
@@ -4456,7 +4433,7 @@
       <c r="M73" s="2"/>
       <c r="N73" s="2"/>
     </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A74" s="9" t="s">
         <v>183</v>
       </c>
@@ -4500,7 +4477,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A75" s="9" t="s">
         <v>184</v>
       </c>
@@ -4544,7 +4521,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A76" s="9" t="s">
         <v>185</v>
       </c>
@@ -4588,7 +4565,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C77" s="12"/>
       <c r="D77" s="12"/>
       <c r="E77" s="12"/>
@@ -4602,7 +4579,7 @@
       <c r="M77" s="2"/>
       <c r="N77" s="2"/>
     </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A78" s="9" t="s">
         <v>49</v>
       </c>
@@ -4619,7 +4596,7 @@
       <c r="M78" s="2"/>
       <c r="N78" s="2"/>
     </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A79" s="9" t="s">
         <v>186</v>
       </c>
@@ -4660,7 +4637,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A80" s="9" t="s">
         <v>50</v>
       </c>
@@ -4677,7 +4654,7 @@
       <c r="M80" s="2"/>
       <c r="N80" s="2"/>
     </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A81" s="9" t="s">
         <v>51</v>
       </c>
@@ -4694,7 +4671,7 @@
       <c r="M81" s="2"/>
       <c r="N81" s="2"/>
     </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A82" s="9" t="s">
         <v>187</v>
       </c>
@@ -4738,7 +4715,7 @@
         <v>2.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A83" s="9" t="s">
         <v>188</v>
       </c>
@@ -4782,7 +4759,7 @@
         <v>2.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A84" s="9" t="s">
         <v>189</v>
       </c>
@@ -4826,7 +4803,7 @@
         <v>2.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A85" s="9" t="s">
         <v>190</v>
       </c>
@@ -4870,7 +4847,7 @@
         <v>2.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A86" s="9" t="s">
         <v>191</v>
       </c>
@@ -4914,7 +4891,7 @@
         <v>2.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A87" s="9" t="s">
         <v>192</v>
       </c>
@@ -4958,7 +4935,7 @@
         <v>2.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C88" s="12"/>
       <c r="D88" s="12"/>
       <c r="E88" s="12"/>
@@ -4972,7 +4949,7 @@
       <c r="M88" s="2"/>
       <c r="N88" s="2"/>
     </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A89" s="9" t="s">
         <v>55</v>
       </c>
@@ -4989,7 +4966,7 @@
       <c r="M89" s="2"/>
       <c r="N89" s="2"/>
     </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A90" s="9" t="s">
         <v>56</v>
       </c>
@@ -5006,7 +4983,7 @@
       <c r="M90" s="2"/>
       <c r="N90" s="2"/>
     </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A91" s="9" t="s">
         <v>193</v>
       </c>
@@ -5047,7 +5024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C92" s="12"/>
       <c r="D92" s="12"/>
       <c r="E92" s="12"/>
@@ -5061,7 +5038,7 @@
       <c r="M92" s="2"/>
       <c r="N92" s="2"/>
     </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A93" s="9" t="s">
         <v>57</v>
       </c>
@@ -5078,7 +5055,7 @@
       <c r="M93" s="2"/>
       <c r="N93" s="2"/>
     </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A94" s="9" t="s">
         <v>56</v>
       </c>
@@ -5095,7 +5072,7 @@
       <c r="M94" s="2"/>
       <c r="N94" s="2"/>
     </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A95" s="9" t="s">
         <v>194</v>
       </c>
@@ -5136,7 +5113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C96" s="12"/>
       <c r="D96" s="12"/>
       <c r="E96" s="12"/>
@@ -5150,7 +5127,7 @@
       <c r="M96" s="2"/>
       <c r="N96" s="2"/>
     </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A97" s="9" t="s">
         <v>58</v>
       </c>
@@ -5167,7 +5144,7 @@
       <c r="M97" s="2"/>
       <c r="N97" s="2"/>
     </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A98" s="9" t="s">
         <v>195</v>
       </c>
@@ -5211,7 +5188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C99" s="12"/>
       <c r="D99" s="12"/>
       <c r="E99" s="12"/>
@@ -5225,7 +5202,7 @@
       <c r="M99" s="2"/>
       <c r="N99" s="2"/>
     </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A100" s="9" t="s">
         <v>60</v>
       </c>
@@ -5242,7 +5219,7 @@
       <c r="M100" s="2"/>
       <c r="N100" s="2"/>
     </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A101" s="9" t="s">
         <v>61</v>
       </c>
@@ -5259,7 +5236,7 @@
       <c r="M101" s="2"/>
       <c r="N101" s="2"/>
     </row>
-    <row r="102" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A102" s="9" t="s">
         <v>62</v>
       </c>
@@ -5276,7 +5253,7 @@
       <c r="M102" s="2"/>
       <c r="N102" s="2"/>
     </row>
-    <row r="103" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A103" s="9" t="s">
         <v>196</v>
       </c>
@@ -5320,7 +5297,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="104" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C104" s="12"/>
       <c r="D104" s="12"/>
       <c r="E104" s="12"/>
@@ -5334,7 +5311,7 @@
       <c r="M104" s="2"/>
       <c r="N104" s="2"/>
     </row>
-    <row r="105" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A105" s="9" t="s">
         <v>64</v>
       </c>
@@ -5351,7 +5328,7 @@
       <c r="M105" s="2"/>
       <c r="N105" s="2"/>
     </row>
-    <row r="106" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A106" s="9" t="s">
         <v>65</v>
       </c>
@@ -5368,7 +5345,7 @@
       <c r="M106" s="2"/>
       <c r="N106" s="2"/>
     </row>
-    <row r="107" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A107" s="9" t="s">
         <v>66</v>
       </c>
@@ -5385,7 +5362,7 @@
       <c r="M107" s="2"/>
       <c r="N107" s="2"/>
     </row>
-    <row r="108" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A108" s="9" t="s">
         <v>258</v>
       </c>
@@ -5426,7 +5403,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="109" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A109" s="9" t="s">
         <v>197</v>
       </c>
@@ -5467,7 +5444,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C110" s="12"/>
       <c r="D110" s="12"/>
       <c r="E110" s="12"/>
@@ -5481,7 +5458,7 @@
       <c r="M110" s="2"/>
       <c r="N110" s="2"/>
     </row>
-    <row r="111" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A111" s="9" t="s">
         <v>67</v>
       </c>
@@ -5498,7 +5475,7 @@
       <c r="M111" s="2"/>
       <c r="N111" s="2"/>
     </row>
-    <row r="112" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A112" s="9" t="s">
         <v>65</v>
       </c>
@@ -5515,7 +5492,7 @@
       <c r="M112" s="2"/>
       <c r="N112" s="2"/>
     </row>
-    <row r="113" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A113" s="9" t="s">
         <v>68</v>
       </c>
@@ -5532,7 +5509,7 @@
       <c r="M113" s="2"/>
       <c r="N113" s="2"/>
     </row>
-    <row r="114" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A114" s="9" t="s">
         <v>69</v>
       </c>
@@ -5549,7 +5526,7 @@
       <c r="M114" s="2"/>
       <c r="N114" s="2"/>
     </row>
-    <row r="115" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A115" s="9" t="s">
         <v>198</v>
       </c>
@@ -5593,7 +5570,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="116" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C116" s="12"/>
       <c r="D116" s="12"/>
       <c r="E116" s="12"/>
@@ -5607,7 +5584,7 @@
       <c r="M116" s="2"/>
       <c r="N116" s="2"/>
     </row>
-    <row r="117" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A117" s="9" t="s">
         <v>71</v>
       </c>
@@ -5624,7 +5601,7 @@
       <c r="M117" s="2"/>
       <c r="N117" s="2"/>
     </row>
-    <row r="118" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A118" s="9" t="s">
         <v>72</v>
       </c>
@@ -5641,7 +5618,7 @@
       <c r="M118" s="2"/>
       <c r="N118" s="2"/>
     </row>
-    <row r="119" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A119" s="9" t="s">
         <v>199</v>
       </c>
@@ -5682,7 +5659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A120" s="9" t="s">
         <v>259</v>
       </c>
@@ -5723,7 +5700,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C121" s="31"/>
       <c r="D121" s="31"/>
       <c r="E121" s="31"/>
@@ -5736,7 +5713,7 @@
       <c r="L121" s="31"/>
       <c r="M121" s="31"/>
     </row>
-    <row r="122" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C122" s="31"/>
       <c r="D122" s="31"/>
       <c r="E122" s="31"/>
@@ -5749,7 +5726,7 @@
       <c r="L122" s="31"/>
       <c r="M122" s="31"/>
     </row>
-    <row r="123" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C123" s="31"/>
       <c r="D123" s="31"/>
       <c r="E123" s="31"/>
@@ -5762,7 +5739,7 @@
       <c r="L123" s="31"/>
       <c r="M123" s="31"/>
     </row>
-    <row r="124" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C124" s="31"/>
       <c r="D124" s="31"/>
       <c r="E124" s="31"/>
@@ -5775,7 +5752,7 @@
       <c r="L124" s="31"/>
       <c r="M124" s="31"/>
     </row>
-    <row r="125" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C125" s="31"/>
       <c r="D125" s="31"/>
       <c r="E125" s="31"/>
@@ -5788,7 +5765,7 @@
       <c r="L125" s="31"/>
       <c r="M125" s="31"/>
     </row>
-    <row r="126" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C126" s="31"/>
       <c r="D126" s="31"/>
       <c r="E126" s="31"/>
@@ -5801,7 +5778,7 @@
       <c r="L126" s="31"/>
       <c r="M126" s="31"/>
     </row>
-    <row r="127" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C127" s="31"/>
       <c r="D127" s="31"/>
       <c r="E127" s="31"/>
@@ -5814,7 +5791,7 @@
       <c r="L127" s="31"/>
       <c r="M127" s="31"/>
     </row>
-    <row r="128" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C128" s="31"/>
       <c r="D128" s="31"/>
       <c r="E128" s="31"/>
@@ -5827,7 +5804,7 @@
       <c r="L128" s="31"/>
       <c r="M128" s="31"/>
     </row>
-    <row r="129" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="129" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C129" s="31"/>
       <c r="D129" s="31"/>
       <c r="E129" s="31"/>
@@ -5840,7 +5817,7 @@
       <c r="L129" s="31"/>
       <c r="M129" s="31"/>
     </row>
-    <row r="130" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="130" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C130" s="31"/>
       <c r="D130" s="31"/>
       <c r="E130" s="31"/>
@@ -5853,7 +5830,7 @@
       <c r="L130" s="31"/>
       <c r="M130" s="31"/>
     </row>
-    <row r="131" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="131" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C131" s="31"/>
       <c r="D131" s="31"/>
       <c r="E131" s="31"/>
@@ -5866,7 +5843,7 @@
       <c r="L131" s="31"/>
       <c r="M131" s="31"/>
     </row>
-    <row r="132" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="132" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C132" s="31"/>
       <c r="D132" s="31"/>
       <c r="E132" s="31"/>
@@ -5879,7 +5856,7 @@
       <c r="L132" s="31"/>
       <c r="M132" s="31"/>
     </row>
-    <row r="133" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="133" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C133" s="31"/>
       <c r="D133" s="31"/>
       <c r="E133" s="31"/>
@@ -5892,7 +5869,7 @@
       <c r="L133" s="31"/>
       <c r="M133" s="31"/>
     </row>
-    <row r="134" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="134" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C134" s="31"/>
       <c r="D134" s="31"/>
       <c r="E134" s="31"/>
@@ -5905,7 +5882,7 @@
       <c r="L134" s="31"/>
       <c r="M134" s="31"/>
     </row>
-    <row r="135" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="135" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C135" s="31"/>
       <c r="D135" s="31"/>
       <c r="E135" s="31"/>
@@ -5918,7 +5895,7 @@
       <c r="L135" s="31"/>
       <c r="M135" s="31"/>
     </row>
-    <row r="136" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="136" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C136" s="31"/>
       <c r="D136" s="31"/>
       <c r="E136" s="31"/>
@@ -5931,7 +5908,7 @@
       <c r="L136" s="31"/>
       <c r="M136" s="31"/>
     </row>
-    <row r="137" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="137" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C137" s="31"/>
       <c r="D137" s="31"/>
       <c r="E137" s="31"/>
@@ -5944,7 +5921,7 @@
       <c r="L137" s="31"/>
       <c r="M137" s="31"/>
     </row>
-    <row r="138" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="138" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C138" s="31"/>
       <c r="D138" s="31"/>
       <c r="E138" s="31"/>
@@ -5957,7 +5934,7 @@
       <c r="L138" s="31"/>
       <c r="M138" s="31"/>
     </row>
-    <row r="139" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="139" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C139" s="31"/>
       <c r="D139" s="31"/>
       <c r="E139" s="31"/>
@@ -5970,7 +5947,7 @@
       <c r="L139" s="31"/>
       <c r="M139" s="31"/>
     </row>
-    <row r="140" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="140" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C140" s="31"/>
       <c r="D140" s="31"/>
       <c r="E140" s="31"/>
@@ -5983,7 +5960,7 @@
       <c r="L140" s="31"/>
       <c r="M140" s="31"/>
     </row>
-    <row r="141" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="141" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C141" s="31"/>
       <c r="D141" s="31"/>
       <c r="E141" s="31"/>
@@ -5996,7 +5973,7 @@
       <c r="L141" s="31"/>
       <c r="M141" s="31"/>
     </row>
-    <row r="142" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="142" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C142" s="31"/>
       <c r="D142" s="31"/>
       <c r="E142" s="31"/>
@@ -6009,7 +5986,7 @@
       <c r="L142" s="31"/>
       <c r="M142" s="31"/>
     </row>
-    <row r="143" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="143" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C143" s="31"/>
       <c r="D143" s="31"/>
       <c r="E143" s="31"/>
@@ -6022,7 +5999,7 @@
       <c r="L143" s="31"/>
       <c r="M143" s="31"/>
     </row>
-    <row r="144" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="144" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C144" s="31"/>
       <c r="D144" s="31"/>
       <c r="E144" s="31"/>
@@ -6035,7 +6012,7 @@
       <c r="L144" s="31"/>
       <c r="M144" s="31"/>
     </row>
-    <row r="145" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="145" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C145" s="31"/>
       <c r="D145" s="31"/>
       <c r="E145" s="31"/>
@@ -6048,7 +6025,7 @@
       <c r="L145" s="31"/>
       <c r="M145" s="31"/>
     </row>
-    <row r="146" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="146" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C146" s="31"/>
       <c r="D146" s="31"/>
       <c r="E146" s="31"/>
@@ -6061,7 +6038,7 @@
       <c r="L146" s="31"/>
       <c r="M146" s="31"/>
     </row>
-    <row r="147" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="147" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C147" s="31"/>
       <c r="D147" s="31"/>
       <c r="E147" s="31"/>
@@ -6074,7 +6051,7 @@
       <c r="L147" s="31"/>
       <c r="M147" s="31"/>
     </row>
-    <row r="148" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="148" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C148" s="31"/>
       <c r="D148" s="31"/>
       <c r="E148" s="31"/>
@@ -6087,7 +6064,7 @@
       <c r="L148" s="31"/>
       <c r="M148" s="31"/>
     </row>
-    <row r="149" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="149" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C149" s="31"/>
       <c r="D149" s="31"/>
       <c r="E149" s="31"/>
@@ -6100,7 +6077,7 @@
       <c r="L149" s="31"/>
       <c r="M149" s="31"/>
     </row>
-    <row r="150" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="150" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C150" s="31"/>
       <c r="D150" s="31"/>
       <c r="E150" s="31"/>
@@ -6113,7 +6090,7 @@
       <c r="L150" s="31"/>
       <c r="M150" s="31"/>
     </row>
-    <row r="151" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="151" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C151" s="31"/>
       <c r="D151" s="31"/>
       <c r="E151" s="31"/>
@@ -6126,7 +6103,7 @@
       <c r="L151" s="31"/>
       <c r="M151" s="31"/>
     </row>
-    <row r="152" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="152" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C152" s="31"/>
       <c r="D152" s="31"/>
       <c r="E152" s="31"/>
@@ -6139,7 +6116,7 @@
       <c r="L152" s="31"/>
       <c r="M152" s="31"/>
     </row>
-    <row r="153" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="153" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C153" s="31"/>
       <c r="D153" s="31"/>
       <c r="E153" s="31"/>
@@ -6152,7 +6129,7 @@
       <c r="L153" s="31"/>
       <c r="M153" s="31"/>
     </row>
-    <row r="154" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="154" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C154" s="31"/>
       <c r="D154" s="31"/>
       <c r="E154" s="31"/>
@@ -6165,7 +6142,7 @@
       <c r="L154" s="31"/>
       <c r="M154" s="31"/>
     </row>
-    <row r="155" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="155" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C155" s="31"/>
       <c r="D155" s="31"/>
       <c r="E155" s="31"/>
@@ -6178,7 +6155,7 @@
       <c r="L155" s="31"/>
       <c r="M155" s="31"/>
     </row>
-    <row r="156" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="156" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C156" s="31"/>
       <c r="D156" s="31"/>
       <c r="E156" s="31"/>
@@ -6191,7 +6168,7 @@
       <c r="L156" s="31"/>
       <c r="M156" s="31"/>
     </row>
-    <row r="157" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="157" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C157" s="31"/>
       <c r="D157" s="31"/>
       <c r="E157" s="31"/>
@@ -6204,7 +6181,7 @@
       <c r="L157" s="31"/>
       <c r="M157" s="31"/>
     </row>
-    <row r="158" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="158" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C158" s="31"/>
       <c r="D158" s="31"/>
       <c r="E158" s="31"/>
@@ -6217,7 +6194,7 @@
       <c r="L158" s="31"/>
       <c r="M158" s="31"/>
     </row>
-    <row r="159" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="159" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C159" s="31"/>
       <c r="D159" s="31"/>
       <c r="E159" s="31"/>
@@ -6230,7 +6207,7 @@
       <c r="L159" s="31"/>
       <c r="M159" s="31"/>
     </row>
-    <row r="160" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="160" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C160" s="31"/>
       <c r="D160" s="31"/>
       <c r="E160" s="31"/>
@@ -6243,7 +6220,7 @@
       <c r="L160" s="31"/>
       <c r="M160" s="31"/>
     </row>
-    <row r="161" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="161" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C161" s="31"/>
       <c r="D161" s="31"/>
       <c r="E161" s="31"/>
@@ -6256,7 +6233,7 @@
       <c r="L161" s="31"/>
       <c r="M161" s="31"/>
     </row>
-    <row r="162" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="162" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C162" s="31"/>
       <c r="D162" s="31"/>
       <c r="E162" s="31"/>
@@ -6269,7 +6246,7 @@
       <c r="L162" s="31"/>
       <c r="M162" s="31"/>
     </row>
-    <row r="163" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="163" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C163" s="31"/>
       <c r="D163" s="31"/>
       <c r="E163" s="31"/>
@@ -6282,7 +6259,7 @@
       <c r="L163" s="31"/>
       <c r="M163" s="31"/>
     </row>
-    <row r="164" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="164" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C164" s="31"/>
       <c r="D164" s="31"/>
       <c r="E164" s="31"/>
@@ -6295,7 +6272,7 @@
       <c r="L164" s="31"/>
       <c r="M164" s="31"/>
     </row>
-    <row r="165" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="165" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C165" s="31"/>
       <c r="D165" s="31"/>
       <c r="E165" s="31"/>
@@ -6308,7 +6285,7 @@
       <c r="L165" s="31"/>
       <c r="M165" s="31"/>
     </row>
-    <row r="166" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="166" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C166" s="31"/>
       <c r="D166" s="31"/>
       <c r="E166" s="31"/>
@@ -6321,7 +6298,7 @@
       <c r="L166" s="31"/>
       <c r="M166" s="31"/>
     </row>
-    <row r="167" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="167" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C167" s="31"/>
       <c r="D167" s="31"/>
       <c r="E167" s="31"/>
@@ -6334,7 +6311,7 @@
       <c r="L167" s="31"/>
       <c r="M167" s="31"/>
     </row>
-    <row r="168" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="168" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C168" s="31"/>
       <c r="D168" s="31"/>
       <c r="E168" s="31"/>
@@ -6347,7 +6324,7 @@
       <c r="L168" s="31"/>
       <c r="M168" s="31"/>
     </row>
-    <row r="169" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="169" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C169" s="31"/>
       <c r="D169" s="31"/>
       <c r="E169" s="31"/>
@@ -6360,7 +6337,7 @@
       <c r="L169" s="31"/>
       <c r="M169" s="31"/>
     </row>
-    <row r="170" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="170" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C170" s="31"/>
       <c r="D170" s="31"/>
       <c r="E170" s="31"/>
@@ -6373,7 +6350,7 @@
       <c r="L170" s="31"/>
       <c r="M170" s="31"/>
     </row>
-    <row r="171" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="171" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C171" s="31"/>
       <c r="D171" s="31"/>
       <c r="E171" s="31"/>
@@ -6386,7 +6363,7 @@
       <c r="L171" s="31"/>
       <c r="M171" s="31"/>
     </row>
-    <row r="172" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="172" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C172" s="31"/>
       <c r="D172" s="31"/>
       <c r="E172" s="31"/>
@@ -6399,7 +6376,7 @@
       <c r="L172" s="31"/>
       <c r="M172" s="31"/>
     </row>
-    <row r="173" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="173" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C173" s="31"/>
       <c r="D173" s="31"/>
       <c r="E173" s="31"/>
@@ -6412,7 +6389,7 @@
       <c r="L173" s="31"/>
       <c r="M173" s="31"/>
     </row>
-    <row r="174" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="174" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C174" s="31"/>
       <c r="D174" s="31"/>
       <c r="E174" s="31"/>
@@ -6425,7 +6402,7 @@
       <c r="L174" s="31"/>
       <c r="M174" s="31"/>
     </row>
-    <row r="175" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="175" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C175" s="31"/>
       <c r="D175" s="31"/>
       <c r="E175" s="31"/>
@@ -6438,7 +6415,7 @@
       <c r="L175" s="31"/>
       <c r="M175" s="31"/>
     </row>
-    <row r="176" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="176" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C176" s="31"/>
       <c r="D176" s="31"/>
       <c r="E176" s="31"/>
@@ -6451,7 +6428,7 @@
       <c r="L176" s="31"/>
       <c r="M176" s="31"/>
     </row>
-    <row r="177" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="177" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C177" s="31"/>
       <c r="D177" s="31"/>
       <c r="E177" s="31"/>
@@ -6464,7 +6441,7 @@
       <c r="L177" s="31"/>
       <c r="M177" s="31"/>
     </row>
-    <row r="178" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="178" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C178" s="31"/>
       <c r="D178" s="31"/>
       <c r="E178" s="31"/>
@@ -6477,7 +6454,7 @@
       <c r="L178" s="31"/>
       <c r="M178" s="31"/>
     </row>
-    <row r="179" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="179" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C179" s="31"/>
       <c r="D179" s="31"/>
       <c r="E179" s="31"/>
@@ -6490,7 +6467,7 @@
       <c r="L179" s="31"/>
       <c r="M179" s="31"/>
     </row>
-    <row r="180" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="180" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C180" s="31"/>
       <c r="D180" s="31"/>
       <c r="E180" s="31"/>
@@ -6503,7 +6480,7 @@
       <c r="L180" s="31"/>
       <c r="M180" s="31"/>
     </row>
-    <row r="181" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="181" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C181" s="31"/>
       <c r="D181" s="31"/>
       <c r="E181" s="31"/>
@@ -6516,7 +6493,7 @@
       <c r="L181" s="31"/>
       <c r="M181" s="31"/>
     </row>
-    <row r="182" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="182" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C182" s="31"/>
       <c r="D182" s="31"/>
       <c r="E182" s="31"/>
@@ -6529,7 +6506,7 @@
       <c r="L182" s="31"/>
       <c r="M182" s="31"/>
     </row>
-    <row r="183" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="183" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C183" s="31"/>
       <c r="D183" s="31"/>
       <c r="E183" s="31"/>
@@ -6542,7 +6519,7 @@
       <c r="L183" s="31"/>
       <c r="M183" s="31"/>
     </row>
-    <row r="184" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="184" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C184" s="31"/>
       <c r="D184" s="31"/>
       <c r="E184" s="31"/>
@@ -6555,7 +6532,7 @@
       <c r="L184" s="31"/>
       <c r="M184" s="31"/>
     </row>
-    <row r="185" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="185" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C185" s="31"/>
       <c r="D185" s="31"/>
       <c r="E185" s="31"/>
@@ -6568,7 +6545,7 @@
       <c r="L185" s="31"/>
       <c r="M185" s="31"/>
     </row>
-    <row r="186" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="186" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C186" s="31"/>
       <c r="D186" s="31"/>
       <c r="E186" s="31"/>
@@ -6581,7 +6558,7 @@
       <c r="L186" s="31"/>
       <c r="M186" s="31"/>
     </row>
-    <row r="187" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="187" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C187" s="31"/>
       <c r="D187" s="31"/>
       <c r="E187" s="31"/>
@@ -6594,7 +6571,7 @@
       <c r="L187" s="31"/>
       <c r="M187" s="31"/>
     </row>
-    <row r="188" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="188" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C188" s="31"/>
       <c r="D188" s="31"/>
       <c r="E188" s="31"/>
@@ -6607,7 +6584,7 @@
       <c r="L188" s="31"/>
       <c r="M188" s="31"/>
     </row>
-    <row r="189" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="189" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C189" s="31"/>
       <c r="D189" s="31"/>
       <c r="E189" s="31"/>
@@ -6620,7 +6597,7 @@
       <c r="L189" s="31"/>
       <c r="M189" s="31"/>
     </row>
-    <row r="190" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="190" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C190" s="31"/>
       <c r="D190" s="31"/>
       <c r="E190" s="31"/>
@@ -6633,7 +6610,7 @@
       <c r="L190" s="31"/>
       <c r="M190" s="31"/>
     </row>
-    <row r="191" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="191" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C191" s="31"/>
       <c r="D191" s="31"/>
       <c r="E191" s="31"/>
@@ -6646,7 +6623,7 @@
       <c r="L191" s="31"/>
       <c r="M191" s="31"/>
     </row>
-    <row r="192" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="192" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C192" s="31"/>
       <c r="D192" s="31"/>
       <c r="E192" s="31"/>
@@ -6659,7 +6636,7 @@
       <c r="L192" s="31"/>
       <c r="M192" s="31"/>
     </row>
-    <row r="193" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="193" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C193" s="31"/>
       <c r="D193" s="31"/>
       <c r="E193" s="31"/>
@@ -6672,7 +6649,7 @@
       <c r="L193" s="31"/>
       <c r="M193" s="31"/>
     </row>
-    <row r="194" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="194" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C194" s="31"/>
       <c r="D194" s="31"/>
       <c r="E194" s="31"/>
@@ -6685,7 +6662,7 @@
       <c r="L194" s="31"/>
       <c r="M194" s="31"/>
     </row>
-    <row r="195" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="195" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C195" s="31"/>
       <c r="D195" s="31"/>
       <c r="E195" s="31"/>
@@ -6698,7 +6675,7 @@
       <c r="L195" s="31"/>
       <c r="M195" s="31"/>
     </row>
-    <row r="196" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="196" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C196" s="31"/>
       <c r="D196" s="31"/>
       <c r="E196" s="31"/>
@@ -6711,7 +6688,7 @@
       <c r="L196" s="31"/>
       <c r="M196" s="31"/>
     </row>
-    <row r="197" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="197" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C197" s="31"/>
       <c r="D197" s="31"/>
       <c r="E197" s="31"/>
@@ -6724,7 +6701,7 @@
       <c r="L197" s="31"/>
       <c r="M197" s="31"/>
     </row>
-    <row r="198" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="198" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C198" s="31"/>
       <c r="D198" s="31"/>
       <c r="E198" s="31"/>
@@ -6737,7 +6714,7 @@
       <c r="L198" s="31"/>
       <c r="M198" s="31"/>
     </row>
-    <row r="199" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="199" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C199" s="31"/>
       <c r="D199" s="31"/>
       <c r="E199" s="31"/>
@@ -6750,7 +6727,7 @@
       <c r="L199" s="31"/>
       <c r="M199" s="31"/>
     </row>
-    <row r="200" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="200" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C200" s="31"/>
       <c r="D200" s="31"/>
       <c r="E200" s="31"/>
@@ -6763,7 +6740,7 @@
       <c r="L200" s="31"/>
       <c r="M200" s="31"/>
     </row>
-    <row r="201" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="201" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C201" s="31"/>
       <c r="D201" s="31"/>
       <c r="E201" s="31"/>
@@ -6776,7 +6753,7 @@
       <c r="L201" s="31"/>
       <c r="M201" s="31"/>
     </row>
-    <row r="202" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="202" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C202" s="31"/>
       <c r="D202" s="31"/>
       <c r="E202" s="31"/>
@@ -6789,7 +6766,7 @@
       <c r="L202" s="31"/>
       <c r="M202" s="31"/>
     </row>
-    <row r="203" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="203" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C203" s="31"/>
       <c r="D203" s="31"/>
       <c r="E203" s="31"/>
@@ -6802,7 +6779,7 @@
       <c r="L203" s="31"/>
       <c r="M203" s="31"/>
     </row>
-    <row r="204" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="204" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C204" s="31"/>
       <c r="D204" s="31"/>
       <c r="E204" s="31"/>
@@ -6815,7 +6792,7 @@
       <c r="L204" s="31"/>
       <c r="M204" s="31"/>
     </row>
-    <row r="205" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="205" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C205" s="31"/>
       <c r="D205" s="31"/>
       <c r="E205" s="31"/>
@@ -6828,7 +6805,7 @@
       <c r="L205" s="31"/>
       <c r="M205" s="31"/>
     </row>
-    <row r="206" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="206" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C206" s="31"/>
       <c r="D206" s="31"/>
       <c r="E206" s="31"/>
@@ -6841,7 +6818,7 @@
       <c r="L206" s="31"/>
       <c r="M206" s="31"/>
     </row>
-    <row r="207" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="207" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C207" s="31"/>
       <c r="D207" s="31"/>
       <c r="E207" s="31"/>
@@ -6854,7 +6831,7 @@
       <c r="L207" s="31"/>
       <c r="M207" s="31"/>
     </row>
-    <row r="208" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="208" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C208" s="31"/>
       <c r="D208" s="31"/>
       <c r="E208" s="31"/>
@@ -6867,7 +6844,7 @@
       <c r="L208" s="31"/>
       <c r="M208" s="31"/>
     </row>
-    <row r="209" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="209" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C209" s="31"/>
       <c r="D209" s="31"/>
       <c r="E209" s="31"/>
@@ -6880,7 +6857,7 @@
       <c r="L209" s="31"/>
       <c r="M209" s="31"/>
     </row>
-    <row r="210" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="210" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C210" s="31"/>
       <c r="D210" s="31"/>
       <c r="E210" s="31"/>
@@ -6893,7 +6870,7 @@
       <c r="L210" s="31"/>
       <c r="M210" s="31"/>
     </row>
-    <row r="211" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="211" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C211" s="31"/>
       <c r="D211" s="31"/>
       <c r="E211" s="31"/>
@@ -6906,7 +6883,7 @@
       <c r="L211" s="31"/>
       <c r="M211" s="31"/>
     </row>
-    <row r="212" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="212" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C212" s="31"/>
       <c r="D212" s="31"/>
       <c r="E212" s="31"/>
@@ -6919,7 +6896,7 @@
       <c r="L212" s="31"/>
       <c r="M212" s="31"/>
     </row>
-    <row r="213" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="213" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C213" s="31"/>
       <c r="D213" s="31"/>
       <c r="E213" s="31"/>
@@ -6932,7 +6909,7 @@
       <c r="L213" s="31"/>
       <c r="M213" s="31"/>
     </row>
-    <row r="214" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="214" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C214" s="31"/>
       <c r="D214" s="31"/>
       <c r="E214" s="31"/>
@@ -6945,7 +6922,7 @@
       <c r="L214" s="31"/>
       <c r="M214" s="31"/>
     </row>
-    <row r="215" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="215" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C215" s="31"/>
       <c r="D215" s="31"/>
       <c r="E215" s="31"/>
@@ -6958,7 +6935,7 @@
       <c r="L215" s="31"/>
       <c r="M215" s="31"/>
     </row>
-    <row r="216" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="216" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C216" s="31"/>
       <c r="D216" s="31"/>
       <c r="E216" s="31"/>
@@ -6971,7 +6948,7 @@
       <c r="L216" s="31"/>
       <c r="M216" s="31"/>
     </row>
-    <row r="217" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="217" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C217" s="31"/>
       <c r="D217" s="31"/>
       <c r="E217" s="31"/>
@@ -6984,7 +6961,7 @@
       <c r="L217" s="31"/>
       <c r="M217" s="31"/>
     </row>
-    <row r="218" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="218" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C218" s="31"/>
       <c r="D218" s="31"/>
       <c r="E218" s="31"/>
@@ -6997,7 +6974,7 @@
       <c r="L218" s="31"/>
       <c r="M218" s="31"/>
     </row>
-    <row r="219" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="219" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C219" s="31"/>
       <c r="D219" s="31"/>
       <c r="E219" s="31"/>
@@ -7010,7 +6987,7 @@
       <c r="L219" s="31"/>
       <c r="M219" s="31"/>
     </row>
-    <row r="220" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="220" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C220" s="31"/>
       <c r="D220" s="31"/>
       <c r="E220" s="31"/>
@@ -7023,7 +7000,7 @@
       <c r="L220" s="31"/>
       <c r="M220" s="31"/>
     </row>
-    <row r="221" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="221" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C221" s="31"/>
       <c r="D221" s="31"/>
       <c r="E221" s="31"/>
@@ -7036,7 +7013,7 @@
       <c r="L221" s="31"/>
       <c r="M221" s="31"/>
     </row>
-    <row r="222" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="222" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C222" s="31"/>
       <c r="D222" s="31"/>
       <c r="E222" s="31"/>
@@ -7049,7 +7026,7 @@
       <c r="L222" s="31"/>
       <c r="M222" s="31"/>
     </row>
-    <row r="223" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="223" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C223" s="31"/>
       <c r="D223" s="31"/>
       <c r="E223" s="31"/>
@@ -7062,7 +7039,7 @@
       <c r="L223" s="31"/>
       <c r="M223" s="31"/>
     </row>
-    <row r="224" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="224" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C224" s="31"/>
       <c r="D224" s="31"/>
       <c r="E224" s="31"/>
@@ -7075,7 +7052,7 @@
       <c r="L224" s="31"/>
       <c r="M224" s="31"/>
     </row>
-    <row r="225" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="225" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C225" s="31"/>
       <c r="D225" s="31"/>
       <c r="E225" s="31"/>
@@ -7088,7 +7065,7 @@
       <c r="L225" s="31"/>
       <c r="M225" s="31"/>
     </row>
-    <row r="226" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="226" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C226" s="31"/>
       <c r="D226" s="31"/>
       <c r="E226" s="31"/>
@@ -7101,7 +7078,7 @@
       <c r="L226" s="31"/>
       <c r="M226" s="31"/>
     </row>
-    <row r="227" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="227" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C227" s="31"/>
       <c r="D227" s="31"/>
       <c r="E227" s="31"/>
@@ -7114,7 +7091,7 @@
       <c r="L227" s="31"/>
       <c r="M227" s="31"/>
     </row>
-    <row r="228" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="228" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C228" s="31"/>
       <c r="D228" s="31"/>
       <c r="E228" s="31"/>
@@ -7127,7 +7104,7 @@
       <c r="L228" s="31"/>
       <c r="M228" s="31"/>
     </row>
-    <row r="229" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="229" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C229" s="31"/>
       <c r="D229" s="31"/>
       <c r="E229" s="31"/>
@@ -7140,7 +7117,7 @@
       <c r="L229" s="31"/>
       <c r="M229" s="31"/>
     </row>
-    <row r="230" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="230" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C230" s="31"/>
       <c r="D230" s="31"/>
       <c r="E230" s="31"/>
@@ -7153,7 +7130,7 @@
       <c r="L230" s="31"/>
       <c r="M230" s="31"/>
     </row>
-    <row r="231" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="231" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C231" s="31"/>
       <c r="D231" s="31"/>
       <c r="E231" s="31"/>
@@ -7166,7 +7143,7 @@
       <c r="L231" s="31"/>
       <c r="M231" s="31"/>
     </row>
-    <row r="232" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="232" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C232" s="31"/>
       <c r="D232" s="31"/>
       <c r="E232" s="31"/>
@@ -7179,7 +7156,7 @@
       <c r="L232" s="31"/>
       <c r="M232" s="31"/>
     </row>
-    <row r="233" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="233" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C233" s="31"/>
       <c r="D233" s="31"/>
       <c r="E233" s="31"/>
@@ -7192,7 +7169,7 @@
       <c r="L233" s="31"/>
       <c r="M233" s="31"/>
     </row>
-    <row r="234" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="234" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C234" s="31"/>
       <c r="D234" s="31"/>
       <c r="E234" s="31"/>
@@ -7205,7 +7182,7 @@
       <c r="L234" s="31"/>
       <c r="M234" s="31"/>
     </row>
-    <row r="235" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="235" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C235" s="31"/>
       <c r="D235" s="31"/>
       <c r="E235" s="31"/>
@@ -7218,7 +7195,7 @@
       <c r="L235" s="31"/>
       <c r="M235" s="31"/>
     </row>
-    <row r="236" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="236" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C236" s="31"/>
       <c r="D236" s="31"/>
       <c r="E236" s="31"/>
@@ -7231,7 +7208,7 @@
       <c r="L236" s="31"/>
       <c r="M236" s="31"/>
     </row>
-    <row r="237" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="237" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C237" s="31"/>
       <c r="D237" s="31"/>
       <c r="E237" s="31"/>
@@ -7244,7 +7221,7 @@
       <c r="L237" s="31"/>
       <c r="M237" s="31"/>
     </row>
-    <row r="238" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="238" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C238" s="31"/>
       <c r="D238" s="31"/>
       <c r="E238" s="31"/>
@@ -7257,7 +7234,7 @@
       <c r="L238" s="31"/>
       <c r="M238" s="31"/>
     </row>
-    <row r="239" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="239" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C239" s="31"/>
       <c r="D239" s="31"/>
       <c r="E239" s="31"/>
@@ -7270,7 +7247,7 @@
       <c r="L239" s="31"/>
       <c r="M239" s="31"/>
     </row>
-    <row r="240" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="240" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C240" s="31"/>
       <c r="D240" s="31"/>
       <c r="E240" s="31"/>
@@ -7283,7 +7260,7 @@
       <c r="L240" s="31"/>
       <c r="M240" s="31"/>
     </row>
-    <row r="241" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="241" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C241" s="31"/>
       <c r="D241" s="31"/>
       <c r="E241" s="31"/>
@@ -7296,7 +7273,7 @@
       <c r="L241" s="31"/>
       <c r="M241" s="31"/>
     </row>
-    <row r="242" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="242" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C242" s="31"/>
       <c r="D242" s="31"/>
       <c r="E242" s="31"/>
@@ -7309,7 +7286,7 @@
       <c r="L242" s="31"/>
       <c r="M242" s="31"/>
     </row>
-    <row r="243" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="243" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C243" s="31"/>
       <c r="D243" s="31"/>
       <c r="E243" s="31"/>
@@ -7322,7 +7299,7 @@
       <c r="L243" s="31"/>
       <c r="M243" s="31"/>
     </row>
-    <row r="244" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="244" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C244" s="31"/>
       <c r="D244" s="31"/>
       <c r="E244" s="31"/>
@@ -7335,7 +7312,7 @@
       <c r="L244" s="31"/>
       <c r="M244" s="31"/>
     </row>
-    <row r="245" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="245" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C245" s="31"/>
       <c r="D245" s="31"/>
       <c r="E245" s="31"/>
@@ -7348,7 +7325,7 @@
       <c r="L245" s="31"/>
       <c r="M245" s="31"/>
     </row>
-    <row r="246" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="246" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C246" s="31"/>
       <c r="D246" s="31"/>
       <c r="E246" s="31"/>
@@ -7361,7 +7338,7 @@
       <c r="L246" s="31"/>
       <c r="M246" s="31"/>
     </row>
-    <row r="247" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="247" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C247" s="31"/>
       <c r="D247" s="31"/>
       <c r="E247" s="31"/>
@@ -7374,7 +7351,7 @@
       <c r="L247" s="31"/>
       <c r="M247" s="31"/>
     </row>
-    <row r="248" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="248" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C248" s="31"/>
       <c r="D248" s="31"/>
       <c r="E248" s="31"/>
@@ -7387,7 +7364,7 @@
       <c r="L248" s="31"/>
       <c r="M248" s="31"/>
     </row>
-    <row r="249" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="249" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C249" s="31"/>
       <c r="D249" s="31"/>
       <c r="E249" s="31"/>
@@ -7400,7 +7377,7 @@
       <c r="L249" s="31"/>
       <c r="M249" s="31"/>
     </row>
-    <row r="250" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="250" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C250" s="31"/>
       <c r="D250" s="31"/>
       <c r="E250" s="31"/>
@@ -7413,7 +7390,7 @@
       <c r="L250" s="31"/>
       <c r="M250" s="31"/>
     </row>
-    <row r="251" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="251" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C251" s="31"/>
       <c r="D251" s="31"/>
       <c r="E251" s="31"/>
@@ -7426,7 +7403,7 @@
       <c r="L251" s="31"/>
       <c r="M251" s="31"/>
     </row>
-    <row r="252" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="252" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C252" s="31"/>
       <c r="D252" s="31"/>
       <c r="E252" s="31"/>
@@ -7439,7 +7416,7 @@
       <c r="L252" s="31"/>
       <c r="M252" s="31"/>
     </row>
-    <row r="253" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="253" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C253" s="31"/>
       <c r="D253" s="31"/>
       <c r="E253" s="31"/>
@@ -7452,7 +7429,7 @@
       <c r="L253" s="31"/>
       <c r="M253" s="31"/>
     </row>
-    <row r="254" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="254" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C254" s="31"/>
       <c r="D254" s="31"/>
       <c r="E254" s="31"/>
@@ -7465,7 +7442,7 @@
       <c r="L254" s="31"/>
       <c r="M254" s="31"/>
     </row>
-    <row r="255" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="255" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C255" s="31"/>
       <c r="D255" s="31"/>
       <c r="E255" s="31"/>
@@ -7478,7 +7455,7 @@
       <c r="L255" s="31"/>
       <c r="M255" s="31"/>
     </row>
-    <row r="256" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="256" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C256" s="31"/>
       <c r="D256" s="31"/>
       <c r="E256" s="31"/>
@@ -7491,7 +7468,7 @@
       <c r="L256" s="31"/>
       <c r="M256" s="31"/>
     </row>
-    <row r="257" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="257" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C257" s="31"/>
       <c r="D257" s="31"/>
       <c r="E257" s="31"/>
@@ -7504,7 +7481,7 @@
       <c r="L257" s="31"/>
       <c r="M257" s="31"/>
     </row>
-    <row r="258" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="258" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C258" s="31"/>
       <c r="D258" s="31"/>
       <c r="E258" s="31"/>
@@ -7517,7 +7494,7 @@
       <c r="L258" s="31"/>
       <c r="M258" s="31"/>
     </row>
-    <row r="259" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="259" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C259" s="31"/>
       <c r="D259" s="31"/>
       <c r="E259" s="31"/>
@@ -7530,7 +7507,7 @@
       <c r="L259" s="31"/>
       <c r="M259" s="31"/>
     </row>
-    <row r="260" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="260" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C260" s="31"/>
       <c r="D260" s="31"/>
       <c r="E260" s="31"/>
@@ -7543,7 +7520,7 @@
       <c r="L260" s="31"/>
       <c r="M260" s="31"/>
     </row>
-    <row r="261" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="261" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C261" s="31"/>
       <c r="D261" s="31"/>
       <c r="E261" s="31"/>
@@ -7556,7 +7533,7 @@
       <c r="L261" s="31"/>
       <c r="M261" s="31"/>
     </row>
-    <row r="262" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="262" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C262" s="31"/>
       <c r="D262" s="31"/>
       <c r="E262" s="31"/>
@@ -7569,7 +7546,7 @@
       <c r="L262" s="31"/>
       <c r="M262" s="31"/>
     </row>
-    <row r="263" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="263" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C263" s="31"/>
       <c r="D263" s="31"/>
       <c r="E263" s="31"/>
@@ -7582,7 +7559,7 @@
       <c r="L263" s="31"/>
       <c r="M263" s="31"/>
     </row>
-    <row r="264" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="264" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C264" s="31"/>
       <c r="D264" s="31"/>
       <c r="E264" s="31"/>
@@ -7595,7 +7572,7 @@
       <c r="L264" s="31"/>
       <c r="M264" s="31"/>
     </row>
-    <row r="265" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="265" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C265" s="31"/>
       <c r="D265" s="31"/>
       <c r="E265" s="31"/>
@@ -7608,7 +7585,7 @@
       <c r="L265" s="31"/>
       <c r="M265" s="31"/>
     </row>
-    <row r="266" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="266" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C266" s="31"/>
       <c r="D266" s="31"/>
       <c r="E266" s="31"/>
@@ -7621,7 +7598,7 @@
       <c r="L266" s="31"/>
       <c r="M266" s="31"/>
     </row>
-    <row r="267" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="267" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C267" s="31"/>
       <c r="D267" s="31"/>
       <c r="E267" s="31"/>
@@ -7634,7 +7611,7 @@
       <c r="L267" s="31"/>
       <c r="M267" s="31"/>
     </row>
-    <row r="268" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="268" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C268" s="31"/>
       <c r="D268" s="31"/>
       <c r="E268" s="31"/>
@@ -7647,7 +7624,7 @@
       <c r="L268" s="31"/>
       <c r="M268" s="31"/>
     </row>
-    <row r="269" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="269" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C269" s="31"/>
       <c r="D269" s="31"/>
       <c r="E269" s="31"/>
@@ -7660,7 +7637,7 @@
       <c r="L269" s="31"/>
       <c r="M269" s="31"/>
     </row>
-    <row r="270" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="270" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C270" s="31"/>
       <c r="D270" s="31"/>
       <c r="E270" s="31"/>
@@ -7673,7 +7650,7 @@
       <c r="L270" s="31"/>
       <c r="M270" s="31"/>
     </row>
-    <row r="271" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="271" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C271" s="31"/>
       <c r="D271" s="31"/>
       <c r="E271" s="31"/>
@@ -7686,7 +7663,7 @@
       <c r="L271" s="31"/>
       <c r="M271" s="31"/>
     </row>
-    <row r="272" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="272" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C272" s="31"/>
       <c r="D272" s="31"/>
       <c r="E272" s="31"/>
@@ -7699,7 +7676,7 @@
       <c r="L272" s="31"/>
       <c r="M272" s="31"/>
     </row>
-    <row r="273" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="273" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C273" s="31"/>
       <c r="D273" s="31"/>
       <c r="E273" s="31"/>
@@ -7712,7 +7689,7 @@
       <c r="L273" s="31"/>
       <c r="M273" s="31"/>
     </row>
-    <row r="274" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="274" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C274" s="31"/>
       <c r="D274" s="31"/>
       <c r="E274" s="31"/>
@@ -7725,7 +7702,7 @@
       <c r="L274" s="31"/>
       <c r="M274" s="31"/>
     </row>
-    <row r="275" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="275" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C275" s="31"/>
       <c r="D275" s="31"/>
       <c r="E275" s="31"/>
@@ -7738,7 +7715,7 @@
       <c r="L275" s="31"/>
       <c r="M275" s="31"/>
     </row>
-    <row r="276" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="276" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C276" s="31"/>
       <c r="D276" s="31"/>
       <c r="E276" s="31"/>
@@ -7751,7 +7728,7 @@
       <c r="L276" s="31"/>
       <c r="M276" s="31"/>
     </row>
-    <row r="277" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="277" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C277" s="31"/>
       <c r="D277" s="31"/>
       <c r="E277" s="31"/>
@@ -7764,7 +7741,7 @@
       <c r="L277" s="31"/>
       <c r="M277" s="31"/>
     </row>
-    <row r="278" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="278" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C278" s="31"/>
       <c r="D278" s="31"/>
       <c r="E278" s="31"/>
@@ -7777,7 +7754,7 @@
       <c r="L278" s="31"/>
       <c r="M278" s="31"/>
     </row>
-    <row r="279" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="279" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C279" s="31"/>
       <c r="D279" s="31"/>
       <c r="E279" s="31"/>
@@ -7790,7 +7767,7 @@
       <c r="L279" s="31"/>
       <c r="M279" s="31"/>
     </row>
-    <row r="280" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="280" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C280" s="31"/>
       <c r="D280" s="31"/>
       <c r="E280" s="31"/>
@@ -7803,7 +7780,7 @@
       <c r="L280" s="31"/>
       <c r="M280" s="31"/>
     </row>
-    <row r="281" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="281" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C281" s="31"/>
       <c r="D281" s="31"/>
       <c r="E281" s="31"/>
@@ -7816,7 +7793,7 @@
       <c r="L281" s="31"/>
       <c r="M281" s="31"/>
     </row>
-    <row r="282" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="282" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C282" s="31"/>
       <c r="D282" s="31"/>
       <c r="E282" s="31"/>
@@ -7829,7 +7806,7 @@
       <c r="L282" s="31"/>
       <c r="M282" s="31"/>
     </row>
-    <row r="283" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="283" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C283" s="31"/>
       <c r="D283" s="31"/>
       <c r="E283" s="31"/>
@@ -7842,7 +7819,7 @@
       <c r="L283" s="31"/>
       <c r="M283" s="31"/>
     </row>
-    <row r="284" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="284" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C284" s="31"/>
       <c r="D284" s="31"/>
       <c r="E284" s="31"/>
@@ -7855,7 +7832,7 @@
       <c r="L284" s="31"/>
       <c r="M284" s="31"/>
     </row>
-    <row r="285" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="285" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C285" s="31"/>
       <c r="D285" s="31"/>
       <c r="E285" s="31"/>
@@ -7868,7 +7845,7 @@
       <c r="L285" s="31"/>
       <c r="M285" s="31"/>
     </row>
-    <row r="286" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="286" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C286" s="31"/>
       <c r="D286" s="31"/>
       <c r="E286" s="31"/>
@@ -7881,7 +7858,7 @@
       <c r="L286" s="31"/>
       <c r="M286" s="31"/>
     </row>
-    <row r="287" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="287" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C287" s="31"/>
       <c r="D287" s="31"/>
       <c r="E287" s="31"/>
@@ -7894,7 +7871,7 @@
       <c r="L287" s="31"/>
       <c r="M287" s="31"/>
     </row>
-    <row r="288" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="288" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C288" s="31"/>
       <c r="D288" s="31"/>
       <c r="E288" s="31"/>
@@ -7907,7 +7884,7 @@
       <c r="L288" s="31"/>
       <c r="M288" s="31"/>
     </row>
-    <row r="289" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="289" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C289" s="31"/>
       <c r="D289" s="31"/>
       <c r="E289" s="31"/>
@@ -7920,7 +7897,7 @@
       <c r="L289" s="31"/>
       <c r="M289" s="31"/>
     </row>
-    <row r="290" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="290" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C290" s="31"/>
       <c r="D290" s="31"/>
       <c r="E290" s="31"/>
@@ -7933,7 +7910,7 @@
       <c r="L290" s="31"/>
       <c r="M290" s="31"/>
     </row>
-    <row r="291" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="291" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C291" s="31"/>
       <c r="D291" s="31"/>
       <c r="E291" s="31"/>
@@ -7946,7 +7923,7 @@
       <c r="L291" s="31"/>
       <c r="M291" s="31"/>
     </row>
-    <row r="292" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="292" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C292" s="31"/>
       <c r="D292" s="31"/>
       <c r="E292" s="31"/>
@@ -7959,7 +7936,7 @@
       <c r="L292" s="31"/>
       <c r="M292" s="31"/>
     </row>
-    <row r="293" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="293" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C293" s="31"/>
       <c r="D293" s="31"/>
       <c r="E293" s="31"/>
@@ -7972,7 +7949,7 @@
       <c r="L293" s="31"/>
       <c r="M293" s="31"/>
     </row>
-    <row r="294" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="294" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C294" s="31"/>
       <c r="D294" s="31"/>
       <c r="E294" s="31"/>
@@ -7985,7 +7962,7 @@
       <c r="L294" s="31"/>
       <c r="M294" s="31"/>
     </row>
-    <row r="295" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="295" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C295" s="31"/>
       <c r="D295" s="31"/>
       <c r="E295" s="31"/>
@@ -7998,7 +7975,7 @@
       <c r="L295" s="31"/>
       <c r="M295" s="31"/>
     </row>
-    <row r="296" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="296" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C296" s="31"/>
       <c r="D296" s="31"/>
       <c r="E296" s="31"/>
@@ -8011,7 +7988,7 @@
       <c r="L296" s="31"/>
       <c r="M296" s="31"/>
     </row>
-    <row r="297" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="297" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C297" s="31"/>
       <c r="D297" s="31"/>
       <c r="E297" s="31"/>
@@ -8024,7 +8001,7 @@
       <c r="L297" s="31"/>
       <c r="M297" s="31"/>
     </row>
-    <row r="298" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="298" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C298" s="31"/>
       <c r="D298" s="31"/>
       <c r="E298" s="31"/>
@@ -8037,7 +8014,7 @@
       <c r="L298" s="31"/>
       <c r="M298" s="31"/>
     </row>
-    <row r="299" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="299" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C299" s="31"/>
       <c r="D299" s="31"/>
       <c r="E299" s="31"/>
@@ -8050,7 +8027,7 @@
       <c r="L299" s="31"/>
       <c r="M299" s="31"/>
     </row>
-    <row r="300" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="300" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C300" s="31"/>
       <c r="D300" s="31"/>
       <c r="E300" s="31"/>
@@ -8063,7 +8040,7 @@
       <c r="L300" s="31"/>
       <c r="M300" s="31"/>
     </row>
-    <row r="301" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="301" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C301" s="31"/>
       <c r="D301" s="31"/>
       <c r="E301" s="31"/>
@@ -8076,7 +8053,7 @@
       <c r="L301" s="31"/>
       <c r="M301" s="31"/>
     </row>
-    <row r="302" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="302" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C302" s="31"/>
       <c r="D302" s="31"/>
       <c r="E302" s="31"/>
@@ -8089,7 +8066,7 @@
       <c r="L302" s="31"/>
       <c r="M302" s="31"/>
     </row>
-    <row r="303" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="303" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C303" s="31"/>
       <c r="D303" s="31"/>
       <c r="E303" s="31"/>
@@ -8102,7 +8079,7 @@
       <c r="L303" s="31"/>
       <c r="M303" s="31"/>
     </row>
-    <row r="304" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="304" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C304" s="31"/>
       <c r="D304" s="31"/>
       <c r="E304" s="31"/>
@@ -8115,7 +8092,7 @@
       <c r="L304" s="31"/>
       <c r="M304" s="31"/>
     </row>
-    <row r="305" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="305" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C305" s="31"/>
       <c r="D305" s="31"/>
       <c r="E305" s="31"/>
@@ -8128,7 +8105,7 @@
       <c r="L305" s="31"/>
       <c r="M305" s="31"/>
     </row>
-    <row r="306" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="306" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C306" s="31"/>
       <c r="D306" s="31"/>
       <c r="E306" s="31"/>
@@ -8141,7 +8118,7 @@
       <c r="L306" s="31"/>
       <c r="M306" s="31"/>
     </row>
-    <row r="307" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="307" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C307" s="31"/>
       <c r="D307" s="31"/>
       <c r="E307" s="31"/>
@@ -8154,7 +8131,7 @@
       <c r="L307" s="31"/>
       <c r="M307" s="31"/>
     </row>
-    <row r="308" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="308" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C308" s="31"/>
       <c r="D308" s="31"/>
       <c r="E308" s="31"/>
@@ -8167,7 +8144,7 @@
       <c r="L308" s="31"/>
       <c r="M308" s="31"/>
     </row>
-    <row r="309" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="309" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C309" s="31"/>
       <c r="D309" s="31"/>
       <c r="E309" s="31"/>
@@ -8180,7 +8157,7 @@
       <c r="L309" s="31"/>
       <c r="M309" s="31"/>
     </row>
-    <row r="310" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="310" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C310" s="31"/>
       <c r="D310" s="31"/>
       <c r="E310" s="31"/>
@@ -8193,7 +8170,7 @@
       <c r="L310" s="31"/>
       <c r="M310" s="31"/>
     </row>
-    <row r="311" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="311" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C311" s="31"/>
       <c r="D311" s="31"/>
       <c r="E311" s="31"/>
@@ -8206,7 +8183,7 @@
       <c r="L311" s="31"/>
       <c r="M311" s="31"/>
     </row>
-    <row r="312" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="312" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C312" s="31"/>
       <c r="D312" s="31"/>
       <c r="E312" s="31"/>
@@ -8219,7 +8196,7 @@
       <c r="L312" s="31"/>
       <c r="M312" s="31"/>
     </row>
-    <row r="313" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="313" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C313" s="31"/>
       <c r="D313" s="31"/>
       <c r="E313" s="31"/>
@@ -8232,7 +8209,7 @@
       <c r="L313" s="31"/>
       <c r="M313" s="31"/>
     </row>
-    <row r="314" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="314" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C314" s="31"/>
       <c r="D314" s="31"/>
       <c r="E314" s="31"/>
@@ -8245,7 +8222,7 @@
       <c r="L314" s="31"/>
       <c r="M314" s="31"/>
     </row>
-    <row r="315" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="315" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C315" s="31"/>
       <c r="D315" s="31"/>
       <c r="E315" s="31"/>
@@ -8258,7 +8235,7 @@
       <c r="L315" s="31"/>
       <c r="M315" s="31"/>
     </row>
-    <row r="316" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="316" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C316" s="31"/>
       <c r="D316" s="31"/>
       <c r="E316" s="31"/>
@@ -8271,7 +8248,7 @@
       <c r="L316" s="31"/>
       <c r="M316" s="31"/>
     </row>
-    <row r="317" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="317" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C317" s="31"/>
       <c r="D317" s="31"/>
       <c r="E317" s="31"/>
@@ -8284,7 +8261,7 @@
       <c r="L317" s="31"/>
       <c r="M317" s="31"/>
     </row>
-    <row r="318" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="318" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C318" s="31"/>
       <c r="D318" s="31"/>
       <c r="E318" s="31"/>
@@ -8297,7 +8274,7 @@
       <c r="L318" s="31"/>
       <c r="M318" s="31"/>
     </row>
-    <row r="319" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="319" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C319" s="31"/>
       <c r="D319" s="31"/>
       <c r="E319" s="31"/>
@@ -8310,7 +8287,7 @@
       <c r="L319" s="31"/>
       <c r="M319" s="31"/>
     </row>
-    <row r="320" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="320" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C320" s="31"/>
       <c r="D320" s="31"/>
       <c r="E320" s="31"/>
@@ -8323,7 +8300,7 @@
       <c r="L320" s="31"/>
       <c r="M320" s="31"/>
     </row>
-    <row r="321" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="321" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C321" s="31"/>
       <c r="D321" s="31"/>
       <c r="E321" s="31"/>
@@ -8336,7 +8313,7 @@
       <c r="L321" s="31"/>
       <c r="M321" s="31"/>
     </row>
-    <row r="322" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="322" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C322" s="31"/>
       <c r="D322" s="31"/>
       <c r="E322" s="31"/>
@@ -8349,7 +8326,7 @@
       <c r="L322" s="31"/>
       <c r="M322" s="31"/>
     </row>
-    <row r="323" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="323" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C323" s="31"/>
       <c r="D323" s="31"/>
       <c r="E323" s="31"/>
@@ -8362,7 +8339,7 @@
       <c r="L323" s="31"/>
       <c r="M323" s="31"/>
     </row>
-    <row r="324" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="324" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C324" s="31"/>
       <c r="D324" s="31"/>
       <c r="E324" s="31"/>
@@ -8375,7 +8352,7 @@
       <c r="L324" s="31"/>
       <c r="M324" s="31"/>
     </row>
-    <row r="325" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="325" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C325" s="31"/>
       <c r="D325" s="31"/>
       <c r="E325" s="31"/>
@@ -8388,7 +8365,7 @@
       <c r="L325" s="31"/>
       <c r="M325" s="31"/>
     </row>
-    <row r="326" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="326" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C326" s="31"/>
       <c r="D326" s="31"/>
       <c r="E326" s="31"/>
@@ -8401,7 +8378,7 @@
       <c r="L326" s="31"/>
       <c r="M326" s="31"/>
     </row>
-    <row r="327" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="327" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C327" s="31"/>
       <c r="D327" s="31"/>
       <c r="E327" s="31"/>
@@ -8414,7 +8391,7 @@
       <c r="L327" s="31"/>
       <c r="M327" s="31"/>
     </row>
-    <row r="328" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="328" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C328" s="31"/>
       <c r="D328" s="31"/>
       <c r="E328" s="31"/>
@@ -8427,7 +8404,7 @@
       <c r="L328" s="31"/>
       <c r="M328" s="31"/>
     </row>
-    <row r="329" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="329" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C329" s="31"/>
       <c r="D329" s="31"/>
       <c r="E329" s="31"/>
@@ -8440,7 +8417,7 @@
       <c r="L329" s="31"/>
       <c r="M329" s="31"/>
     </row>
-    <row r="330" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="330" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C330" s="31"/>
       <c r="D330" s="31"/>
       <c r="E330" s="31"/>
@@ -8453,7 +8430,7 @@
       <c r="L330" s="31"/>
       <c r="M330" s="31"/>
     </row>
-    <row r="331" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="331" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C331" s="31"/>
       <c r="D331" s="31"/>
       <c r="E331" s="31"/>
@@ -8466,7 +8443,7 @@
       <c r="L331" s="31"/>
       <c r="M331" s="31"/>
     </row>
-    <row r="332" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="332" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C332" s="31"/>
       <c r="D332" s="31"/>
       <c r="E332" s="31"/>
@@ -8479,7 +8456,7 @@
       <c r="L332" s="31"/>
       <c r="M332" s="31"/>
     </row>
-    <row r="333" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="333" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C333" s="31"/>
       <c r="D333" s="31"/>
       <c r="E333" s="31"/>
@@ -8492,7 +8469,7 @@
       <c r="L333" s="31"/>
       <c r="M333" s="31"/>
     </row>
-    <row r="334" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="334" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C334" s="31"/>
       <c r="D334" s="31"/>
       <c r="E334" s="31"/>
@@ -8505,7 +8482,7 @@
       <c r="L334" s="31"/>
       <c r="M334" s="31"/>
     </row>
-    <row r="335" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="335" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C335" s="31"/>
       <c r="D335" s="31"/>
       <c r="E335" s="31"/>
@@ -8518,7 +8495,7 @@
       <c r="L335" s="31"/>
       <c r="M335" s="31"/>
     </row>
-    <row r="336" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="336" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C336" s="31"/>
       <c r="D336" s="31"/>
       <c r="E336" s="31"/>
@@ -8531,7 +8508,7 @@
       <c r="L336" s="31"/>
       <c r="M336" s="31"/>
     </row>
-    <row r="337" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="337" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C337" s="31"/>
       <c r="D337" s="31"/>
       <c r="E337" s="31"/>
@@ -8544,7 +8521,7 @@
       <c r="L337" s="31"/>
       <c r="M337" s="31"/>
     </row>
-    <row r="338" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="338" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C338" s="31"/>
       <c r="D338" s="31"/>
       <c r="E338" s="31"/>
@@ -8557,7 +8534,7 @@
       <c r="L338" s="31"/>
       <c r="M338" s="31"/>
     </row>
-    <row r="339" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="339" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C339" s="31"/>
       <c r="D339" s="31"/>
       <c r="E339" s="31"/>
@@ -8570,7 +8547,7 @@
       <c r="L339" s="31"/>
       <c r="M339" s="31"/>
     </row>
-    <row r="340" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="340" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C340" s="31"/>
       <c r="D340" s="31"/>
       <c r="E340" s="31"/>
@@ -8583,7 +8560,7 @@
       <c r="L340" s="31"/>
       <c r="M340" s="31"/>
     </row>
-    <row r="341" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="341" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C341" s="31"/>
       <c r="D341" s="31"/>
       <c r="E341" s="31"/>
@@ -8596,7 +8573,7 @@
       <c r="L341" s="31"/>
       <c r="M341" s="31"/>
     </row>
-    <row r="342" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="342" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C342" s="31"/>
       <c r="D342" s="31"/>
       <c r="E342" s="31"/>
@@ -8609,7 +8586,7 @@
       <c r="L342" s="31"/>
       <c r="M342" s="31"/>
     </row>
-    <row r="343" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="343" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C343" s="31"/>
       <c r="D343" s="31"/>
       <c r="E343" s="31"/>
@@ -8622,7 +8599,7 @@
       <c r="L343" s="31"/>
       <c r="M343" s="31"/>
     </row>
-    <row r="344" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="344" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C344" s="31"/>
       <c r="D344" s="31"/>
       <c r="E344" s="31"/>
@@ -8635,7 +8612,7 @@
       <c r="L344" s="31"/>
       <c r="M344" s="31"/>
     </row>
-    <row r="345" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="345" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C345" s="31"/>
       <c r="D345" s="31"/>
       <c r="E345" s="31"/>
@@ -8648,7 +8625,7 @@
       <c r="L345" s="31"/>
       <c r="M345" s="31"/>
     </row>
-    <row r="346" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="346" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C346" s="31"/>
       <c r="D346" s="31"/>
       <c r="E346" s="31"/>
@@ -8661,7 +8638,7 @@
       <c r="L346" s="31"/>
       <c r="M346" s="31"/>
     </row>
-    <row r="347" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="347" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C347" s="31"/>
       <c r="D347" s="31"/>
       <c r="E347" s="31"/>
@@ -8674,7 +8651,7 @@
       <c r="L347" s="31"/>
       <c r="M347" s="31"/>
     </row>
-    <row r="348" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="348" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C348" s="31"/>
       <c r="D348" s="31"/>
       <c r="E348" s="31"/>
@@ -8687,7 +8664,7 @@
       <c r="L348" s="31"/>
       <c r="M348" s="31"/>
     </row>
-    <row r="349" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="349" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C349" s="31"/>
       <c r="D349" s="31"/>
       <c r="E349" s="31"/>
@@ -8700,7 +8677,7 @@
       <c r="L349" s="31"/>
       <c r="M349" s="31"/>
     </row>
-    <row r="350" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="350" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C350" s="31"/>
       <c r="D350" s="31"/>
       <c r="E350" s="31"/>
@@ -8713,7 +8690,7 @@
       <c r="L350" s="31"/>
       <c r="M350" s="31"/>
     </row>
-    <row r="351" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="351" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C351" s="31"/>
       <c r="D351" s="31"/>
       <c r="E351" s="31"/>
@@ -8726,7 +8703,7 @@
       <c r="L351" s="31"/>
       <c r="M351" s="31"/>
     </row>
-    <row r="352" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="352" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C352" s="31"/>
       <c r="D352" s="31"/>
       <c r="E352" s="31"/>
@@ -8739,7 +8716,7 @@
       <c r="L352" s="31"/>
       <c r="M352" s="31"/>
     </row>
-    <row r="353" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="353" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C353" s="31"/>
       <c r="D353" s="31"/>
       <c r="E353" s="31"/>
@@ -8752,7 +8729,7 @@
       <c r="L353" s="31"/>
       <c r="M353" s="31"/>
     </row>
-    <row r="354" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="354" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C354" s="31"/>
       <c r="D354" s="31"/>
       <c r="E354" s="31"/>
@@ -8765,7 +8742,7 @@
       <c r="L354" s="31"/>
       <c r="M354" s="31"/>
     </row>
-    <row r="355" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="355" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C355" s="31"/>
       <c r="D355" s="31"/>
       <c r="E355" s="31"/>
@@ -8778,7 +8755,7 @@
       <c r="L355" s="31"/>
       <c r="M355" s="31"/>
     </row>
-    <row r="356" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="356" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C356" s="31"/>
       <c r="D356" s="31"/>
       <c r="E356" s="31"/>
@@ -8791,7 +8768,7 @@
       <c r="L356" s="31"/>
       <c r="M356" s="31"/>
     </row>
-    <row r="357" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="357" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C357" s="31"/>
       <c r="D357" s="31"/>
       <c r="E357" s="31"/>
@@ -8804,7 +8781,7 @@
       <c r="L357" s="31"/>
       <c r="M357" s="31"/>
     </row>
-    <row r="358" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="358" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C358" s="31"/>
       <c r="D358" s="31"/>
       <c r="E358" s="31"/>
@@ -8817,7 +8794,7 @@
       <c r="L358" s="31"/>
       <c r="M358" s="31"/>
     </row>
-    <row r="359" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="359" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C359" s="31"/>
       <c r="D359" s="31"/>
       <c r="E359" s="31"/>
@@ -8830,7 +8807,7 @@
       <c r="L359" s="31"/>
       <c r="M359" s="31"/>
     </row>
-    <row r="360" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="360" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C360" s="31"/>
       <c r="D360" s="31"/>
       <c r="E360" s="31"/>
@@ -8843,7 +8820,7 @@
       <c r="L360" s="31"/>
       <c r="M360" s="31"/>
     </row>
-    <row r="361" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="361" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C361" s="31"/>
       <c r="D361" s="31"/>
       <c r="E361" s="31"/>
@@ -8856,7 +8833,7 @@
       <c r="L361" s="31"/>
       <c r="M361" s="31"/>
     </row>
-    <row r="362" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="362" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C362" s="31"/>
       <c r="D362" s="31"/>
       <c r="E362" s="31"/>
@@ -8869,7 +8846,7 @@
       <c r="L362" s="31"/>
       <c r="M362" s="31"/>
     </row>
-    <row r="363" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="363" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C363" s="31"/>
       <c r="D363" s="31"/>
       <c r="E363" s="31"/>
@@ -8882,7 +8859,7 @@
       <c r="L363" s="31"/>
       <c r="M363" s="31"/>
     </row>
-    <row r="364" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="364" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C364" s="31"/>
       <c r="D364" s="31"/>
       <c r="E364" s="31"/>
@@ -8895,7 +8872,7 @@
       <c r="L364" s="31"/>
       <c r="M364" s="31"/>
     </row>
-    <row r="365" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="365" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C365" s="31"/>
       <c r="D365" s="31"/>
       <c r="E365" s="31"/>
@@ -8908,7 +8885,7 @@
       <c r="L365" s="31"/>
       <c r="M365" s="31"/>
     </row>
-    <row r="366" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="366" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C366" s="31"/>
       <c r="D366" s="31"/>
       <c r="E366" s="31"/>
@@ -8921,7 +8898,7 @@
       <c r="L366" s="31"/>
       <c r="M366" s="31"/>
     </row>
-    <row r="367" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="367" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C367" s="31"/>
       <c r="D367" s="31"/>
       <c r="E367" s="31"/>
@@ -8934,7 +8911,7 @@
       <c r="L367" s="31"/>
       <c r="M367" s="31"/>
     </row>
-    <row r="368" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="368" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C368" s="31"/>
       <c r="D368" s="31"/>
       <c r="E368" s="31"/>
@@ -8947,7 +8924,7 @@
       <c r="L368" s="31"/>
       <c r="M368" s="31"/>
     </row>
-    <row r="369" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="369" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C369" s="31"/>
       <c r="D369" s="31"/>
       <c r="E369" s="31"/>
@@ -8960,7 +8937,7 @@
       <c r="L369" s="31"/>
       <c r="M369" s="31"/>
     </row>
-    <row r="370" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="370" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C370" s="31"/>
       <c r="D370" s="31"/>
       <c r="E370" s="31"/>
@@ -8973,7 +8950,7 @@
       <c r="L370" s="31"/>
       <c r="M370" s="31"/>
     </row>
-    <row r="371" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="371" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C371" s="31"/>
       <c r="D371" s="31"/>
       <c r="E371" s="31"/>
@@ -8986,7 +8963,7 @@
       <c r="L371" s="31"/>
       <c r="M371" s="31"/>
     </row>
-    <row r="372" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="372" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C372" s="31"/>
       <c r="D372" s="31"/>
       <c r="E372" s="31"/>
@@ -8999,7 +8976,7 @@
       <c r="L372" s="31"/>
       <c r="M372" s="31"/>
     </row>
-    <row r="373" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="373" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C373" s="31"/>
       <c r="D373" s="31"/>
       <c r="E373" s="31"/>
@@ -9012,7 +8989,7 @@
       <c r="L373" s="31"/>
       <c r="M373" s="31"/>
     </row>
-    <row r="374" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="374" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C374" s="31"/>
       <c r="D374" s="31"/>
       <c r="E374" s="31"/>
@@ -9025,7 +9002,7 @@
       <c r="L374" s="31"/>
       <c r="M374" s="31"/>
     </row>
-    <row r="375" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="375" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C375" s="31"/>
       <c r="D375" s="31"/>
       <c r="E375" s="31"/>
@@ -9038,7 +9015,7 @@
       <c r="L375" s="31"/>
       <c r="M375" s="31"/>
     </row>
-    <row r="376" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="376" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C376" s="31"/>
       <c r="D376" s="31"/>
       <c r="E376" s="31"/>
@@ -9051,7 +9028,7 @@
       <c r="L376" s="31"/>
       <c r="M376" s="31"/>
     </row>
-    <row r="377" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="377" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C377" s="31"/>
       <c r="D377" s="31"/>
       <c r="E377" s="31"/>
@@ -9064,7 +9041,7 @@
       <c r="L377" s="31"/>
       <c r="M377" s="31"/>
     </row>
-    <row r="378" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="378" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C378" s="31"/>
       <c r="D378" s="31"/>
       <c r="E378" s="31"/>
@@ -9077,7 +9054,7 @@
       <c r="L378" s="31"/>
       <c r="M378" s="31"/>
     </row>
-    <row r="379" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="379" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C379" s="31"/>
       <c r="D379" s="31"/>
       <c r="E379" s="31"/>
@@ -9090,7 +9067,7 @@
       <c r="L379" s="31"/>
       <c r="M379" s="31"/>
     </row>
-    <row r="380" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="380" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C380" s="31"/>
       <c r="D380" s="31"/>
       <c r="E380" s="31"/>
@@ -9103,7 +9080,7 @@
       <c r="L380" s="31"/>
       <c r="M380" s="31"/>
     </row>
-    <row r="381" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="381" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C381" s="31"/>
       <c r="D381" s="31"/>
       <c r="E381" s="31"/>
@@ -9116,7 +9093,7 @@
       <c r="L381" s="31"/>
       <c r="M381" s="31"/>
     </row>
-    <row r="382" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="382" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C382" s="31"/>
       <c r="D382" s="31"/>
       <c r="E382" s="31"/>
@@ -9129,7 +9106,7 @@
       <c r="L382" s="31"/>
       <c r="M382" s="31"/>
     </row>
-    <row r="383" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="383" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C383" s="31"/>
       <c r="D383" s="31"/>
       <c r="E383" s="31"/>
@@ -9142,7 +9119,7 @@
       <c r="L383" s="31"/>
       <c r="M383" s="31"/>
     </row>
-    <row r="384" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="384" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C384" s="31"/>
       <c r="D384" s="31"/>
       <c r="E384" s="31"/>
@@ -9155,7 +9132,7 @@
       <c r="L384" s="31"/>
       <c r="M384" s="31"/>
     </row>
-    <row r="385" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="385" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C385" s="31"/>
       <c r="D385" s="31"/>
       <c r="E385" s="31"/>
@@ -9168,7 +9145,7 @@
       <c r="L385" s="31"/>
       <c r="M385" s="31"/>
     </row>
-    <row r="386" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="386" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C386" s="31"/>
       <c r="D386" s="31"/>
       <c r="E386" s="31"/>
@@ -9181,7 +9158,7 @@
       <c r="L386" s="31"/>
       <c r="M386" s="31"/>
     </row>
-    <row r="387" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="387" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C387" s="31"/>
       <c r="D387" s="31"/>
       <c r="E387" s="31"/>
@@ -9194,7 +9171,7 @@
       <c r="L387" s="31"/>
       <c r="M387" s="31"/>
     </row>
-    <row r="388" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="388" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C388" s="31"/>
       <c r="D388" s="31"/>
       <c r="E388" s="31"/>
@@ -9207,7 +9184,7 @@
       <c r="L388" s="31"/>
       <c r="M388" s="31"/>
     </row>
-    <row r="389" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="389" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C389" s="31"/>
       <c r="D389" s="31"/>
       <c r="E389" s="31"/>
@@ -9220,7 +9197,7 @@
       <c r="L389" s="31"/>
       <c r="M389" s="31"/>
     </row>
-    <row r="390" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="390" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C390" s="31"/>
       <c r="D390" s="31"/>
       <c r="E390" s="31"/>
@@ -9233,7 +9210,7 @@
       <c r="L390" s="31"/>
       <c r="M390" s="31"/>
     </row>
-    <row r="391" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="391" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C391" s="31"/>
       <c r="D391" s="31"/>
       <c r="E391" s="31"/>
@@ -9246,7 +9223,7 @@
       <c r="L391" s="31"/>
       <c r="M391" s="31"/>
     </row>
-    <row r="392" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="392" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C392" s="31"/>
       <c r="D392" s="31"/>
       <c r="E392" s="31"/>
@@ -9259,7 +9236,7 @@
       <c r="L392" s="31"/>
       <c r="M392" s="31"/>
     </row>
-    <row r="393" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="393" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C393" s="31"/>
       <c r="D393" s="31"/>
       <c r="E393" s="31"/>
@@ -9272,7 +9249,7 @@
       <c r="L393" s="31"/>
       <c r="M393" s="31"/>
     </row>
-    <row r="394" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="394" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C394" s="31"/>
       <c r="D394" s="31"/>
       <c r="E394" s="31"/>
@@ -9285,7 +9262,7 @@
       <c r="L394" s="31"/>
       <c r="M394" s="31"/>
     </row>
-    <row r="395" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="395" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C395" s="31"/>
       <c r="D395" s="31"/>
       <c r="E395" s="31"/>
@@ -9298,7 +9275,7 @@
       <c r="L395" s="31"/>
       <c r="M395" s="31"/>
     </row>
-    <row r="396" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="396" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C396" s="31"/>
       <c r="D396" s="31"/>
       <c r="E396" s="31"/>
@@ -9311,7 +9288,7 @@
       <c r="L396" s="31"/>
       <c r="M396" s="31"/>
     </row>
-    <row r="397" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="397" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C397" s="31"/>
       <c r="D397" s="31"/>
       <c r="E397" s="31"/>
@@ -9324,7 +9301,7 @@
       <c r="L397" s="31"/>
       <c r="M397" s="31"/>
     </row>
-    <row r="398" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="398" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C398" s="31"/>
       <c r="D398" s="31"/>
       <c r="E398" s="31"/>
@@ -9337,7 +9314,7 @@
       <c r="L398" s="31"/>
       <c r="M398" s="31"/>
     </row>
-    <row r="399" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="399" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C399" s="31"/>
       <c r="D399" s="31"/>
       <c r="E399" s="31"/>
@@ -9350,7 +9327,7 @@
       <c r="L399" s="31"/>
       <c r="M399" s="31"/>
     </row>
-    <row r="400" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="400" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C400" s="31"/>
       <c r="D400" s="31"/>
       <c r="E400" s="31"/>
@@ -9363,7 +9340,7 @@
       <c r="L400" s="31"/>
       <c r="M400" s="31"/>
     </row>
-    <row r="401" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="401" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C401" s="31"/>
       <c r="D401" s="31"/>
       <c r="E401" s="31"/>
@@ -9376,7 +9353,7 @@
       <c r="L401" s="31"/>
       <c r="M401" s="31"/>
     </row>
-    <row r="402" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="402" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C402" s="31"/>
       <c r="D402" s="31"/>
       <c r="E402" s="31"/>
@@ -9389,7 +9366,7 @@
       <c r="L402" s="31"/>
       <c r="M402" s="31"/>
     </row>
-    <row r="403" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="403" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C403" s="31"/>
       <c r="D403" s="31"/>
       <c r="E403" s="31"/>
@@ -9402,7 +9379,7 @@
       <c r="L403" s="31"/>
       <c r="M403" s="31"/>
     </row>
-    <row r="404" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="404" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C404" s="31"/>
       <c r="D404" s="31"/>
       <c r="E404" s="31"/>
@@ -9415,7 +9392,7 @@
       <c r="L404" s="31"/>
       <c r="M404" s="31"/>
     </row>
-    <row r="405" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="405" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C405" s="31"/>
       <c r="D405" s="31"/>
       <c r="E405" s="31"/>
@@ -9428,7 +9405,7 @@
       <c r="L405" s="31"/>
       <c r="M405" s="31"/>
     </row>
-    <row r="406" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="406" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C406" s="31"/>
       <c r="D406" s="31"/>
       <c r="E406" s="31"/>
@@ -9441,7 +9418,7 @@
       <c r="L406" s="31"/>
       <c r="M406" s="31"/>
     </row>
-    <row r="407" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="407" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C407" s="31"/>
       <c r="D407" s="31"/>
       <c r="E407" s="31"/>
@@ -9454,7 +9431,7 @@
       <c r="L407" s="31"/>
       <c r="M407" s="31"/>
     </row>
-    <row r="408" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="408" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C408" s="31"/>
       <c r="D408" s="31"/>
       <c r="E408" s="31"/>
@@ -9467,7 +9444,7 @@
       <c r="L408" s="31"/>
       <c r="M408" s="31"/>
     </row>
-    <row r="409" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="409" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C409" s="31"/>
       <c r="D409" s="31"/>
       <c r="E409" s="31"/>
@@ -9480,7 +9457,7 @@
       <c r="L409" s="31"/>
       <c r="M409" s="31"/>
     </row>
-    <row r="410" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="410" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C410" s="31"/>
       <c r="D410" s="31"/>
       <c r="E410" s="31"/>
@@ -9493,7 +9470,7 @@
       <c r="L410" s="31"/>
       <c r="M410" s="31"/>
     </row>
-    <row r="411" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="411" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C411" s="31"/>
       <c r="D411" s="31"/>
       <c r="E411" s="31"/>
@@ -9506,7 +9483,7 @@
       <c r="L411" s="31"/>
       <c r="M411" s="31"/>
     </row>
-    <row r="412" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="412" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C412" s="31"/>
       <c r="D412" s="31"/>
       <c r="E412" s="31"/>
@@ -9519,7 +9496,7 @@
       <c r="L412" s="31"/>
       <c r="M412" s="31"/>
     </row>
-    <row r="413" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="413" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C413" s="31"/>
       <c r="D413" s="31"/>
       <c r="E413" s="31"/>
@@ -9532,7 +9509,7 @@
       <c r="L413" s="31"/>
       <c r="M413" s="31"/>
     </row>
-    <row r="414" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="414" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C414" s="31"/>
       <c r="D414" s="31"/>
       <c r="E414" s="31"/>
@@ -9545,7 +9522,7 @@
       <c r="L414" s="31"/>
       <c r="M414" s="31"/>
     </row>
-    <row r="415" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="415" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C415" s="31"/>
       <c r="D415" s="31"/>
       <c r="E415" s="31"/>
@@ -9558,7 +9535,7 @@
       <c r="L415" s="31"/>
       <c r="M415" s="31"/>
     </row>
-    <row r="416" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="416" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C416" s="31"/>
       <c r="D416" s="31"/>
       <c r="E416" s="31"/>
@@ -9571,7 +9548,7 @@
       <c r="L416" s="31"/>
       <c r="M416" s="31"/>
     </row>
-    <row r="417" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="417" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C417" s="31"/>
       <c r="D417" s="31"/>
       <c r="E417" s="31"/>
@@ -9584,7 +9561,7 @@
       <c r="L417" s="31"/>
       <c r="M417" s="31"/>
     </row>
-    <row r="418" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="418" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C418" s="31"/>
       <c r="D418" s="31"/>
       <c r="E418" s="31"/>
@@ -9597,7 +9574,7 @@
       <c r="L418" s="31"/>
       <c r="M418" s="31"/>
     </row>
-    <row r="419" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="419" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C419" s="31"/>
       <c r="D419" s="31"/>
       <c r="E419" s="31"/>
@@ -9610,7 +9587,7 @@
       <c r="L419" s="31"/>
       <c r="M419" s="31"/>
     </row>
-    <row r="420" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="420" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C420" s="31"/>
       <c r="D420" s="31"/>
       <c r="E420" s="31"/>
@@ -9623,7 +9600,7 @@
       <c r="L420" s="31"/>
       <c r="M420" s="31"/>
     </row>
-    <row r="421" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="421" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C421" s="31"/>
       <c r="D421" s="31"/>
       <c r="E421" s="31"/>
@@ -9636,7 +9613,7 @@
       <c r="L421" s="31"/>
       <c r="M421" s="31"/>
     </row>
-    <row r="422" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="422" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C422" s="31"/>
       <c r="D422" s="31"/>
       <c r="E422" s="31"/>
@@ -9649,7 +9626,7 @@
       <c r="L422" s="31"/>
       <c r="M422" s="31"/>
     </row>
-    <row r="423" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="423" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C423" s="31"/>
       <c r="D423" s="31"/>
       <c r="E423" s="31"/>
@@ -9662,7 +9639,7 @@
       <c r="L423" s="31"/>
       <c r="M423" s="31"/>
     </row>
-    <row r="424" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="424" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C424" s="31"/>
       <c r="D424" s="31"/>
       <c r="E424" s="31"/>
@@ -9675,7 +9652,7 @@
       <c r="L424" s="31"/>
       <c r="M424" s="31"/>
     </row>
-    <row r="425" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="425" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C425" s="31"/>
       <c r="D425" s="31"/>
       <c r="E425" s="31"/>
@@ -9688,7 +9665,7 @@
       <c r="L425" s="31"/>
       <c r="M425" s="31"/>
     </row>
-    <row r="426" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="426" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C426" s="31"/>
       <c r="D426" s="31"/>
       <c r="E426" s="31"/>
@@ -9701,7 +9678,7 @@
       <c r="L426" s="31"/>
       <c r="M426" s="31"/>
     </row>
-    <row r="427" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="427" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C427" s="31"/>
       <c r="D427" s="31"/>
       <c r="E427" s="31"/>
@@ -9714,7 +9691,7 @@
       <c r="L427" s="31"/>
       <c r="M427" s="31"/>
     </row>
-    <row r="428" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="428" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C428" s="31"/>
       <c r="D428" s="31"/>
       <c r="E428" s="31"/>
@@ -9727,7 +9704,7 @@
       <c r="L428" s="31"/>
       <c r="M428" s="31"/>
     </row>
-    <row r="429" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="429" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C429" s="31"/>
       <c r="D429" s="31"/>
       <c r="E429" s="31"/>
@@ -9740,7 +9717,7 @@
       <c r="L429" s="31"/>
       <c r="M429" s="31"/>
     </row>
-    <row r="430" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="430" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C430" s="31"/>
       <c r="D430" s="31"/>
       <c r="E430" s="31"/>
@@ -9753,7 +9730,7 @@
       <c r="L430" s="31"/>
       <c r="M430" s="31"/>
     </row>
-    <row r="431" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="431" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C431" s="31"/>
       <c r="D431" s="31"/>
       <c r="E431" s="31"/>
@@ -9766,7 +9743,7 @@
       <c r="L431" s="31"/>
       <c r="M431" s="31"/>
     </row>
-    <row r="432" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="432" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C432" s="31"/>
       <c r="D432" s="31"/>
       <c r="E432" s="31"/>
@@ -9779,7 +9756,7 @@
       <c r="L432" s="31"/>
       <c r="M432" s="31"/>
     </row>
-    <row r="433" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="433" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C433" s="31"/>
       <c r="D433" s="31"/>
       <c r="E433" s="31"/>
@@ -9792,7 +9769,7 @@
       <c r="L433" s="31"/>
       <c r="M433" s="31"/>
     </row>
-    <row r="434" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="434" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C434" s="31"/>
       <c r="D434" s="31"/>
       <c r="E434" s="31"/>
@@ -9805,7 +9782,7 @@
       <c r="L434" s="31"/>
       <c r="M434" s="31"/>
     </row>
-    <row r="435" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="435" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C435" s="31"/>
       <c r="D435" s="31"/>
       <c r="E435" s="31"/>
@@ -9818,7 +9795,7 @@
       <c r="L435" s="31"/>
       <c r="M435" s="31"/>
     </row>
-    <row r="436" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="436" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C436" s="31"/>
       <c r="D436" s="31"/>
       <c r="E436" s="31"/>
@@ -9831,7 +9808,7 @@
       <c r="L436" s="31"/>
       <c r="M436" s="31"/>
     </row>
-    <row r="437" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="437" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C437" s="31"/>
       <c r="D437" s="31"/>
       <c r="E437" s="31"/>
@@ -9844,7 +9821,7 @@
       <c r="L437" s="31"/>
       <c r="M437" s="31"/>
     </row>
-    <row r="438" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="438" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C438" s="31"/>
       <c r="D438" s="31"/>
       <c r="E438" s="31"/>
@@ -9857,7 +9834,7 @@
       <c r="L438" s="31"/>
       <c r="M438" s="31"/>
     </row>
-    <row r="439" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="439" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C439" s="31"/>
       <c r="D439" s="31"/>
       <c r="E439" s="31"/>
@@ -9870,7 +9847,7 @@
       <c r="L439" s="31"/>
       <c r="M439" s="31"/>
     </row>
-    <row r="440" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="440" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C440" s="31"/>
       <c r="D440" s="31"/>
       <c r="E440" s="31"/>
@@ -9883,7 +9860,7 @@
       <c r="L440" s="31"/>
       <c r="M440" s="31"/>
     </row>
-    <row r="441" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="441" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C441" s="31"/>
       <c r="D441" s="31"/>
       <c r="E441" s="31"/>
@@ -9896,7 +9873,7 @@
       <c r="L441" s="31"/>
       <c r="M441" s="31"/>
     </row>
-    <row r="442" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="442" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C442" s="31"/>
       <c r="D442" s="31"/>
       <c r="E442" s="31"/>
@@ -9909,7 +9886,7 @@
       <c r="L442" s="31"/>
       <c r="M442" s="31"/>
     </row>
-    <row r="443" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="443" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C443" s="31"/>
       <c r="D443" s="31"/>
       <c r="E443" s="31"/>
@@ -9922,7 +9899,7 @@
       <c r="L443" s="31"/>
       <c r="M443" s="31"/>
     </row>
-    <row r="444" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="444" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C444" s="31"/>
       <c r="D444" s="31"/>
       <c r="E444" s="31"/>
@@ -9935,7 +9912,7 @@
       <c r="L444" s="31"/>
       <c r="M444" s="31"/>
     </row>
-    <row r="445" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="445" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C445" s="31"/>
       <c r="D445" s="31"/>
       <c r="E445" s="31"/>
@@ -9948,7 +9925,7 @@
       <c r="L445" s="31"/>
       <c r="M445" s="31"/>
     </row>
-    <row r="446" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="446" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C446" s="31"/>
       <c r="D446" s="31"/>
       <c r="E446" s="31"/>
@@ -9961,7 +9938,7 @@
       <c r="L446" s="31"/>
       <c r="M446" s="31"/>
     </row>
-    <row r="447" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="447" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C447" s="31"/>
       <c r="D447" s="31"/>
       <c r="E447" s="31"/>
@@ -9974,7 +9951,7 @@
       <c r="L447" s="31"/>
       <c r="M447" s="31"/>
     </row>
-    <row r="448" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="448" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C448" s="31"/>
       <c r="D448" s="31"/>
       <c r="E448" s="31"/>
@@ -9987,7 +9964,7 @@
       <c r="L448" s="31"/>
       <c r="M448" s="31"/>
     </row>
-    <row r="449" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="449" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C449" s="31"/>
       <c r="D449" s="31"/>
       <c r="E449" s="31"/>
@@ -10000,7 +9977,7 @@
       <c r="L449" s="31"/>
       <c r="M449" s="31"/>
     </row>
-    <row r="450" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="450" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C450" s="31"/>
       <c r="D450" s="31"/>
       <c r="E450" s="31"/>
@@ -10013,7 +9990,7 @@
       <c r="L450" s="31"/>
       <c r="M450" s="31"/>
     </row>
-    <row r="451" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="451" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C451" s="31"/>
       <c r="D451" s="31"/>
       <c r="E451" s="31"/>
@@ -10026,7 +10003,7 @@
       <c r="L451" s="31"/>
       <c r="M451" s="31"/>
     </row>
-    <row r="452" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="452" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C452" s="31"/>
       <c r="D452" s="31"/>
       <c r="E452" s="31"/>
@@ -10039,7 +10016,7 @@
       <c r="L452" s="31"/>
       <c r="M452" s="31"/>
     </row>
-    <row r="453" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="453" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C453" s="31"/>
       <c r="D453" s="31"/>
       <c r="E453" s="31"/>
@@ -10052,7 +10029,7 @@
       <c r="L453" s="31"/>
       <c r="M453" s="31"/>
     </row>
-    <row r="454" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="454" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C454" s="31"/>
       <c r="D454" s="31"/>
       <c r="E454" s="31"/>
@@ -10065,7 +10042,7 @@
       <c r="L454" s="31"/>
       <c r="M454" s="31"/>
     </row>
-    <row r="455" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="455" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C455" s="31"/>
       <c r="D455" s="31"/>
       <c r="E455" s="31"/>
@@ -10078,7 +10055,7 @@
       <c r="L455" s="31"/>
       <c r="M455" s="31"/>
     </row>
-    <row r="456" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="456" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C456" s="31"/>
       <c r="D456" s="31"/>
       <c r="E456" s="31"/>
@@ -10091,7 +10068,7 @@
       <c r="L456" s="31"/>
       <c r="M456" s="31"/>
     </row>
-    <row r="457" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="457" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C457" s="31"/>
       <c r="D457" s="31"/>
       <c r="E457" s="31"/>
@@ -10104,7 +10081,7 @@
       <c r="L457" s="31"/>
       <c r="M457" s="31"/>
     </row>
-    <row r="458" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="458" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C458" s="31"/>
       <c r="D458" s="31"/>
       <c r="E458" s="31"/>
@@ -10117,7 +10094,7 @@
       <c r="L458" s="31"/>
       <c r="M458" s="31"/>
     </row>
-    <row r="459" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="459" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C459" s="31"/>
       <c r="D459" s="31"/>
       <c r="E459" s="31"/>
@@ -10130,7 +10107,7 @@
       <c r="L459" s="31"/>
       <c r="M459" s="31"/>
     </row>
-    <row r="460" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="460" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C460" s="31"/>
       <c r="D460" s="31"/>
       <c r="E460" s="31"/>
@@ -10143,7 +10120,7 @@
       <c r="L460" s="31"/>
       <c r="M460" s="31"/>
     </row>
-    <row r="461" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="461" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C461" s="31"/>
       <c r="D461" s="31"/>
       <c r="E461" s="31"/>
@@ -10156,7 +10133,7 @@
       <c r="L461" s="31"/>
       <c r="M461" s="31"/>
     </row>
-    <row r="462" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="462" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C462" s="31"/>
       <c r="D462" s="31"/>
       <c r="E462" s="31"/>
@@ -10169,7 +10146,7 @@
       <c r="L462" s="31"/>
       <c r="M462" s="31"/>
     </row>
-    <row r="463" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="463" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C463" s="31"/>
       <c r="D463" s="31"/>
       <c r="E463" s="31"/>
@@ -10182,7 +10159,7 @@
       <c r="L463" s="31"/>
       <c r="M463" s="31"/>
     </row>
-    <row r="464" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="464" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C464" s="31"/>
       <c r="D464" s="31"/>
       <c r="E464" s="31"/>
@@ -10195,7 +10172,7 @@
       <c r="L464" s="31"/>
       <c r="M464" s="31"/>
     </row>
-    <row r="465" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="465" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C465" s="31"/>
       <c r="D465" s="31"/>
       <c r="E465" s="31"/>
@@ -10208,7 +10185,7 @@
       <c r="L465" s="31"/>
       <c r="M465" s="31"/>
     </row>
-    <row r="466" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="466" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C466" s="31"/>
       <c r="D466" s="31"/>
       <c r="E466" s="31"/>
@@ -10221,7 +10198,7 @@
       <c r="L466" s="31"/>
       <c r="M466" s="31"/>
     </row>
-    <row r="467" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="467" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C467" s="31"/>
       <c r="D467" s="31"/>
       <c r="E467" s="31"/>
@@ -10234,7 +10211,7 @@
       <c r="L467" s="31"/>
       <c r="M467" s="31"/>
     </row>
-    <row r="468" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="468" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C468" s="31"/>
       <c r="D468" s="31"/>
       <c r="E468" s="31"/>
@@ -10247,7 +10224,7 @@
       <c r="L468" s="31"/>
       <c r="M468" s="31"/>
     </row>
-    <row r="469" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="469" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C469" s="31"/>
       <c r="D469" s="31"/>
       <c r="E469" s="31"/>
@@ -10260,7 +10237,7 @@
       <c r="L469" s="31"/>
       <c r="M469" s="31"/>
     </row>
-    <row r="470" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="470" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C470" s="31"/>
       <c r="D470" s="31"/>
       <c r="E470" s="31"/>
@@ -10273,7 +10250,7 @@
       <c r="L470" s="31"/>
       <c r="M470" s="31"/>
     </row>
-    <row r="471" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="471" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C471" s="31"/>
       <c r="D471" s="31"/>
       <c r="E471" s="31"/>
@@ -10286,7 +10263,7 @@
       <c r="L471" s="31"/>
       <c r="M471" s="31"/>
     </row>
-    <row r="472" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="472" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C472" s="31"/>
       <c r="D472" s="31"/>
       <c r="E472" s="31"/>
@@ -10299,7 +10276,7 @@
       <c r="L472" s="31"/>
       <c r="M472" s="31"/>
     </row>
-    <row r="473" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="473" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C473" s="31"/>
       <c r="D473" s="31"/>
       <c r="E473" s="31"/>
@@ -10312,7 +10289,7 @@
       <c r="L473" s="31"/>
       <c r="M473" s="31"/>
     </row>
-    <row r="474" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="474" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C474" s="31"/>
       <c r="D474" s="31"/>
       <c r="E474" s="31"/>
@@ -10325,7 +10302,7 @@
       <c r="L474" s="31"/>
       <c r="M474" s="31"/>
     </row>
-    <row r="475" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="475" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C475" s="31"/>
       <c r="D475" s="31"/>
       <c r="E475" s="31"/>
@@ -10338,7 +10315,7 @@
       <c r="L475" s="31"/>
       <c r="M475" s="31"/>
     </row>
-    <row r="476" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="476" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C476" s="31"/>
       <c r="D476" s="31"/>
       <c r="E476" s="31"/>
@@ -10351,7 +10328,7 @@
       <c r="L476" s="31"/>
       <c r="M476" s="31"/>
     </row>
-    <row r="477" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="477" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C477" s="31"/>
       <c r="D477" s="31"/>
       <c r="E477" s="31"/>
@@ -10364,7 +10341,7 @@
       <c r="L477" s="31"/>
       <c r="M477" s="31"/>
     </row>
-    <row r="478" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="478" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C478" s="31"/>
       <c r="D478" s="31"/>
       <c r="E478" s="31"/>
@@ -10377,7 +10354,7 @@
       <c r="L478" s="31"/>
       <c r="M478" s="31"/>
     </row>
-    <row r="479" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="479" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C479" s="31"/>
       <c r="D479" s="31"/>
       <c r="E479" s="31"/>
@@ -10390,7 +10367,7 @@
       <c r="L479" s="31"/>
       <c r="M479" s="31"/>
     </row>
-    <row r="480" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="480" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C480" s="31"/>
       <c r="D480" s="31"/>
       <c r="E480" s="31"/>
@@ -10403,7 +10380,7 @@
       <c r="L480" s="31"/>
       <c r="M480" s="31"/>
     </row>
-    <row r="481" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="481" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C481" s="31"/>
       <c r="D481" s="31"/>
       <c r="E481" s="31"/>
@@ -10416,7 +10393,7 @@
       <c r="L481" s="31"/>
       <c r="M481" s="31"/>
     </row>
-    <row r="482" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="482" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C482" s="31"/>
       <c r="D482" s="31"/>
       <c r="E482" s="31"/>
@@ -10429,7 +10406,7 @@
       <c r="L482" s="31"/>
       <c r="M482" s="31"/>
     </row>
-    <row r="483" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="483" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C483" s="31"/>
       <c r="D483" s="31"/>
       <c r="E483" s="31"/>
@@ -10442,7 +10419,7 @@
       <c r="L483" s="31"/>
       <c r="M483" s="31"/>
     </row>
-    <row r="484" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="484" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C484" s="31"/>
       <c r="D484" s="31"/>
       <c r="E484" s="31"/>
@@ -10455,7 +10432,7 @@
       <c r="L484" s="31"/>
       <c r="M484" s="31"/>
     </row>
-    <row r="485" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="485" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C485" s="31"/>
       <c r="D485" s="31"/>
       <c r="E485" s="31"/>
@@ -10468,7 +10445,7 @@
       <c r="L485" s="31"/>
       <c r="M485" s="31"/>
     </row>
-    <row r="486" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="486" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C486" s="31"/>
       <c r="D486" s="31"/>
       <c r="E486" s="31"/>
@@ -10481,7 +10458,7 @@
       <c r="L486" s="31"/>
       <c r="M486" s="31"/>
     </row>
-    <row r="487" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="487" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C487" s="31"/>
       <c r="D487" s="31"/>
       <c r="E487" s="31"/>
@@ -10494,7 +10471,7 @@
       <c r="L487" s="31"/>
       <c r="M487" s="31"/>
     </row>
-    <row r="488" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="488" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C488" s="31"/>
       <c r="D488" s="31"/>
       <c r="E488" s="31"/>
@@ -10507,7 +10484,7 @@
       <c r="L488" s="31"/>
       <c r="M488" s="31"/>
     </row>
-    <row r="489" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="489" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C489" s="31"/>
       <c r="D489" s="31"/>
       <c r="E489" s="31"/>
@@ -10520,7 +10497,7 @@
       <c r="L489" s="31"/>
       <c r="M489" s="31"/>
     </row>
-    <row r="490" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="490" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C490" s="31"/>
       <c r="D490" s="31"/>
       <c r="E490" s="31"/>
@@ -10533,7 +10510,7 @@
       <c r="L490" s="31"/>
       <c r="M490" s="31"/>
     </row>
-    <row r="491" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="491" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C491" s="31"/>
       <c r="D491" s="31"/>
       <c r="E491" s="31"/>
@@ -10546,7 +10523,7 @@
       <c r="L491" s="31"/>
       <c r="M491" s="31"/>
     </row>
-    <row r="492" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="492" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C492" s="31"/>
       <c r="D492" s="31"/>
       <c r="E492" s="31"/>
@@ -10559,7 +10536,7 @@
       <c r="L492" s="31"/>
       <c r="M492" s="31"/>
     </row>
-    <row r="493" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="493" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C493" s="31"/>
       <c r="D493" s="31"/>
       <c r="E493" s="31"/>
@@ -10572,7 +10549,7 @@
       <c r="L493" s="31"/>
       <c r="M493" s="31"/>
     </row>
-    <row r="494" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="494" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C494" s="31"/>
       <c r="D494" s="31"/>
       <c r="E494" s="31"/>
@@ -10585,7 +10562,7 @@
       <c r="L494" s="31"/>
       <c r="M494" s="31"/>
     </row>
-    <row r="495" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="495" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C495" s="31"/>
       <c r="D495" s="31"/>
       <c r="E495" s="31"/>
@@ -10598,7 +10575,7 @@
       <c r="L495" s="31"/>
       <c r="M495" s="31"/>
     </row>
-    <row r="496" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="496" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C496" s="31"/>
       <c r="D496" s="31"/>
       <c r="E496" s="31"/>
@@ -10611,7 +10588,7 @@
       <c r="L496" s="31"/>
       <c r="M496" s="31"/>
     </row>
-    <row r="497" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="497" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C497" s="31"/>
       <c r="D497" s="31"/>
       <c r="E497" s="31"/>
@@ -10624,7 +10601,7 @@
       <c r="L497" s="31"/>
       <c r="M497" s="31"/>
     </row>
-    <row r="498" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="498" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C498" s="31"/>
       <c r="D498" s="31"/>
       <c r="E498" s="31"/>
@@ -10637,7 +10614,7 @@
       <c r="L498" s="31"/>
       <c r="M498" s="31"/>
     </row>
-    <row r="499" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="499" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C499" s="31"/>
       <c r="D499" s="31"/>
       <c r="E499" s="31"/>
@@ -10650,7 +10627,7 @@
       <c r="L499" s="31"/>
       <c r="M499" s="31"/>
     </row>
-    <row r="500" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="500" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C500" s="31"/>
       <c r="D500" s="31"/>
       <c r="E500" s="31"/>
@@ -10663,7 +10640,7 @@
       <c r="L500" s="31"/>
       <c r="M500" s="31"/>
     </row>
-    <row r="501" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="501" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C501" s="31"/>
       <c r="D501" s="31"/>
       <c r="E501" s="31"/>
@@ -10676,7 +10653,7 @@
       <c r="L501" s="31"/>
       <c r="M501" s="31"/>
     </row>
-    <row r="502" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="502" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C502" s="31"/>
       <c r="D502" s="31"/>
       <c r="E502" s="31"/>
@@ -10689,7 +10666,7 @@
       <c r="L502" s="31"/>
       <c r="M502" s="31"/>
     </row>
-    <row r="503" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="503" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C503" s="31"/>
       <c r="D503" s="31"/>
       <c r="E503" s="31"/>
@@ -10702,7 +10679,7 @@
       <c r="L503" s="31"/>
       <c r="M503" s="31"/>
     </row>
-    <row r="504" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="504" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C504" s="31"/>
       <c r="D504" s="31"/>
       <c r="E504" s="31"/>
@@ -10715,7 +10692,7 @@
       <c r="L504" s="31"/>
       <c r="M504" s="31"/>
     </row>
-    <row r="505" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="505" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C505" s="31"/>
       <c r="D505" s="31"/>
       <c r="E505" s="31"/>
@@ -10728,7 +10705,7 @@
       <c r="L505" s="31"/>
       <c r="M505" s="31"/>
     </row>
-    <row r="506" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="506" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C506" s="31"/>
       <c r="D506" s="31"/>
       <c r="E506" s="31"/>
@@ -10741,7 +10718,7 @@
       <c r="L506" s="31"/>
       <c r="M506" s="31"/>
     </row>
-    <row r="507" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="507" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C507" s="31"/>
       <c r="D507" s="31"/>
       <c r="E507" s="31"/>
@@ -10754,7 +10731,7 @@
       <c r="L507" s="31"/>
       <c r="M507" s="31"/>
     </row>
-    <row r="508" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="508" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C508" s="31"/>
       <c r="D508" s="31"/>
       <c r="E508" s="31"/>
@@ -10767,7 +10744,7 @@
       <c r="L508" s="31"/>
       <c r="M508" s="31"/>
     </row>
-    <row r="509" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="509" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C509" s="31"/>
       <c r="D509" s="31"/>
       <c r="E509" s="31"/>
@@ -10780,7 +10757,7 @@
       <c r="L509" s="31"/>
       <c r="M509" s="31"/>
     </row>
-    <row r="510" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="510" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C510" s="31"/>
       <c r="D510" s="31"/>
       <c r="E510" s="31"/>
@@ -10793,7 +10770,7 @@
       <c r="L510" s="31"/>
       <c r="M510" s="31"/>
     </row>
-    <row r="511" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="511" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C511" s="31"/>
       <c r="D511" s="31"/>
       <c r="E511" s="31"/>
@@ -10806,7 +10783,7 @@
       <c r="L511" s="31"/>
       <c r="M511" s="31"/>
     </row>
-    <row r="512" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="512" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C512" s="31"/>
       <c r="D512" s="31"/>
       <c r="E512" s="31"/>
@@ -10819,7 +10796,7 @@
       <c r="L512" s="31"/>
       <c r="M512" s="31"/>
     </row>
-    <row r="513" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="513" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C513" s="31"/>
       <c r="D513" s="31"/>
       <c r="E513" s="31"/>
@@ -10832,7 +10809,7 @@
       <c r="L513" s="31"/>
       <c r="M513" s="31"/>
     </row>
-    <row r="514" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="514" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C514" s="31"/>
       <c r="D514" s="31"/>
       <c r="E514" s="31"/>
@@ -10845,7 +10822,7 @@
       <c r="L514" s="31"/>
       <c r="M514" s="31"/>
     </row>
-    <row r="515" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="515" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C515" s="31"/>
       <c r="D515" s="31"/>
       <c r="E515" s="31"/>
@@ -10858,7 +10835,7 @@
       <c r="L515" s="31"/>
       <c r="M515" s="31"/>
     </row>
-    <row r="516" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="516" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C516" s="31"/>
       <c r="D516" s="31"/>
       <c r="E516" s="31"/>
@@ -10871,7 +10848,7 @@
       <c r="L516" s="31"/>
       <c r="M516" s="31"/>
     </row>
-    <row r="517" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="517" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C517" s="31"/>
       <c r="D517" s="31"/>
       <c r="E517" s="31"/>
@@ -10884,7 +10861,7 @@
       <c r="L517" s="31"/>
       <c r="M517" s="31"/>
     </row>
-    <row r="518" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="518" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C518" s="31"/>
       <c r="D518" s="31"/>
       <c r="E518" s="31"/>
@@ -10897,7 +10874,7 @@
       <c r="L518" s="31"/>
       <c r="M518" s="31"/>
     </row>
-    <row r="519" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="519" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C519" s="31"/>
       <c r="D519" s="31"/>
       <c r="E519" s="31"/>
@@ -10910,7 +10887,7 @@
       <c r="L519" s="31"/>
       <c r="M519" s="31"/>
     </row>
-    <row r="520" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="520" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C520" s="31"/>
       <c r="D520" s="31"/>
       <c r="E520" s="31"/>
@@ -10923,7 +10900,7 @@
       <c r="L520" s="31"/>
       <c r="M520" s="31"/>
     </row>
-    <row r="521" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="521" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C521" s="31"/>
       <c r="D521" s="31"/>
       <c r="E521" s="31"/>
@@ -10936,7 +10913,7 @@
       <c r="L521" s="31"/>
       <c r="M521" s="31"/>
     </row>
-    <row r="522" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="522" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C522" s="31"/>
       <c r="D522" s="31"/>
       <c r="E522" s="31"/>
@@ -10949,7 +10926,7 @@
       <c r="L522" s="31"/>
       <c r="M522" s="31"/>
     </row>
-    <row r="523" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="523" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C523" s="31"/>
       <c r="D523" s="31"/>
       <c r="E523" s="31"/>
@@ -10962,7 +10939,7 @@
       <c r="L523" s="31"/>
       <c r="M523" s="31"/>
     </row>
-    <row r="524" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="524" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C524" s="31"/>
       <c r="D524" s="31"/>
       <c r="E524" s="31"/>
@@ -10975,7 +10952,7 @@
       <c r="L524" s="31"/>
       <c r="M524" s="31"/>
     </row>
-    <row r="525" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="525" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C525" s="31"/>
       <c r="D525" s="31"/>
       <c r="E525" s="31"/>
@@ -10988,7 +10965,7 @@
       <c r="L525" s="31"/>
       <c r="M525" s="31"/>
     </row>
-    <row r="526" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="526" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C526" s="31"/>
       <c r="D526" s="31"/>
       <c r="E526" s="31"/>
@@ -11001,7 +10978,7 @@
       <c r="L526" s="31"/>
       <c r="M526" s="31"/>
     </row>
-    <row r="527" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="527" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C527" s="31"/>
       <c r="D527" s="31"/>
       <c r="E527" s="31"/>
@@ -11014,7 +10991,7 @@
       <c r="L527" s="31"/>
       <c r="M527" s="31"/>
     </row>
-    <row r="528" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="528" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C528" s="31"/>
       <c r="D528" s="31"/>
       <c r="E528" s="31"/>
@@ -11027,7 +11004,7 @@
       <c r="L528" s="31"/>
       <c r="M528" s="31"/>
     </row>
-    <row r="529" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="529" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C529" s="31"/>
       <c r="D529" s="31"/>
       <c r="E529" s="31"/>
@@ -11040,7 +11017,7 @@
       <c r="L529" s="31"/>
       <c r="M529" s="31"/>
     </row>
-    <row r="530" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="530" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C530" s="31"/>
       <c r="D530" s="31"/>
       <c r="E530" s="31"/>
@@ -11053,7 +11030,7 @@
       <c r="L530" s="31"/>
       <c r="M530" s="31"/>
     </row>
-    <row r="531" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="531" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C531" s="31"/>
       <c r="D531" s="31"/>
       <c r="E531" s="31"/>
@@ -11066,7 +11043,7 @@
       <c r="L531" s="31"/>
       <c r="M531" s="31"/>
     </row>
-    <row r="532" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="532" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C532" s="31"/>
       <c r="D532" s="31"/>
       <c r="E532" s="31"/>
@@ -11079,7 +11056,7 @@
       <c r="L532" s="31"/>
       <c r="M532" s="31"/>
     </row>
-    <row r="533" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="533" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C533" s="31"/>
       <c r="D533" s="31"/>
       <c r="E533" s="31"/>
@@ -11092,7 +11069,7 @@
       <c r="L533" s="31"/>
       <c r="M533" s="31"/>
     </row>
-    <row r="534" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="534" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C534" s="31"/>
       <c r="D534" s="31"/>
       <c r="E534" s="31"/>
@@ -11105,7 +11082,7 @@
       <c r="L534" s="31"/>
       <c r="M534" s="31"/>
     </row>
-    <row r="535" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="535" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C535" s="31"/>
       <c r="D535" s="31"/>
       <c r="E535" s="31"/>
@@ -11118,7 +11095,7 @@
       <c r="L535" s="31"/>
       <c r="M535" s="31"/>
     </row>
-    <row r="536" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="536" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C536" s="31"/>
       <c r="D536" s="31"/>
       <c r="E536" s="31"/>
@@ -11131,7 +11108,7 @@
       <c r="L536" s="31"/>
       <c r="M536" s="31"/>
     </row>
-    <row r="537" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="537" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C537" s="31"/>
       <c r="D537" s="31"/>
       <c r="E537" s="31"/>
@@ -11144,7 +11121,7 @@
       <c r="L537" s="31"/>
       <c r="M537" s="31"/>
     </row>
-    <row r="538" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="538" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C538" s="31"/>
       <c r="D538" s="31"/>
       <c r="E538" s="31"/>
@@ -11157,7 +11134,7 @@
       <c r="L538" s="31"/>
       <c r="M538" s="31"/>
     </row>
-    <row r="539" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="539" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C539" s="31"/>
       <c r="D539" s="31"/>
       <c r="E539" s="31"/>
@@ -11170,7 +11147,7 @@
       <c r="L539" s="31"/>
       <c r="M539" s="31"/>
     </row>
-    <row r="540" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="540" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C540" s="31"/>
       <c r="D540" s="31"/>
       <c r="E540" s="31"/>
@@ -11183,7 +11160,7 @@
       <c r="L540" s="31"/>
       <c r="M540" s="31"/>
     </row>
-    <row r="541" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="541" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C541" s="31"/>
       <c r="D541" s="31"/>
       <c r="E541" s="31"/>
@@ -11196,7 +11173,7 @@
       <c r="L541" s="31"/>
       <c r="M541" s="31"/>
     </row>
-    <row r="542" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="542" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C542" s="31"/>
       <c r="D542" s="31"/>
       <c r="E542" s="31"/>
@@ -11209,7 +11186,7 @@
       <c r="L542" s="31"/>
       <c r="M542" s="31"/>
     </row>
-    <row r="543" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="543" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C543" s="31"/>
       <c r="D543" s="31"/>
       <c r="E543" s="31"/>
@@ -11222,7 +11199,7 @@
       <c r="L543" s="31"/>
       <c r="M543" s="31"/>
     </row>
-    <row r="544" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="544" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C544" s="31"/>
       <c r="D544" s="31"/>
       <c r="E544" s="31"/>
@@ -11235,7 +11212,7 @@
       <c r="L544" s="31"/>
       <c r="M544" s="31"/>
     </row>
-    <row r="545" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="545" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C545" s="31"/>
       <c r="D545" s="31"/>
       <c r="E545" s="31"/>
@@ -11248,7 +11225,7 @@
       <c r="L545" s="31"/>
       <c r="M545" s="31"/>
     </row>
-    <row r="546" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="546" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C546" s="31"/>
       <c r="D546" s="31"/>
       <c r="E546" s="31"/>
@@ -11261,7 +11238,7 @@
       <c r="L546" s="31"/>
       <c r="M546" s="31"/>
     </row>
-    <row r="547" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="547" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C547" s="31"/>
       <c r="D547" s="31"/>
       <c r="E547" s="31"/>
@@ -11274,7 +11251,7 @@
       <c r="L547" s="31"/>
       <c r="M547" s="31"/>
     </row>
-    <row r="548" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="548" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C548" s="31"/>
       <c r="D548" s="31"/>
       <c r="E548" s="31"/>
@@ -11287,7 +11264,7 @@
       <c r="L548" s="31"/>
       <c r="M548" s="31"/>
     </row>
-    <row r="549" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="549" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C549" s="31"/>
       <c r="D549" s="31"/>
       <c r="E549" s="31"/>
@@ -11300,7 +11277,7 @@
       <c r="L549" s="31"/>
       <c r="M549" s="31"/>
     </row>
-    <row r="550" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="550" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C550" s="31"/>
       <c r="D550" s="31"/>
       <c r="E550" s="31"/>
@@ -11313,7 +11290,7 @@
       <c r="L550" s="31"/>
       <c r="M550" s="31"/>
     </row>
-    <row r="551" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="551" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C551" s="31"/>
       <c r="D551" s="31"/>
       <c r="E551" s="31"/>
@@ -11326,7 +11303,7 @@
       <c r="L551" s="31"/>
       <c r="M551" s="31"/>
     </row>
-    <row r="552" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="552" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C552" s="31"/>
       <c r="D552" s="31"/>
       <c r="E552" s="31"/>
@@ -11339,7 +11316,7 @@
       <c r="L552" s="31"/>
       <c r="M552" s="31"/>
     </row>
-    <row r="553" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="553" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C553" s="31"/>
       <c r="D553" s="31"/>
       <c r="E553" s="31"/>
@@ -11352,7 +11329,7 @@
       <c r="L553" s="31"/>
       <c r="M553" s="31"/>
     </row>
-    <row r="554" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="554" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C554" s="31"/>
       <c r="D554" s="31"/>
       <c r="E554" s="31"/>
@@ -11365,7 +11342,7 @@
       <c r="L554" s="31"/>
       <c r="M554" s="31"/>
     </row>
-    <row r="555" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="555" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C555" s="31"/>
       <c r="D555" s="31"/>
       <c r="E555" s="31"/>
@@ -11378,7 +11355,7 @@
       <c r="L555" s="31"/>
       <c r="M555" s="31"/>
     </row>
-    <row r="556" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="556" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C556" s="31"/>
       <c r="D556" s="31"/>
       <c r="E556" s="31"/>
@@ -11391,7 +11368,7 @@
       <c r="L556" s="31"/>
       <c r="M556" s="31"/>
     </row>
-    <row r="557" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="557" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C557" s="31"/>
       <c r="D557" s="31"/>
       <c r="E557" s="31"/>
@@ -11404,7 +11381,7 @@
       <c r="L557" s="31"/>
       <c r="M557" s="31"/>
     </row>
-    <row r="558" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="558" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C558" s="31"/>
       <c r="D558" s="31"/>
       <c r="E558" s="31"/>
@@ -11417,7 +11394,7 @@
       <c r="L558" s="31"/>
       <c r="M558" s="31"/>
     </row>
-    <row r="559" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="559" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C559" s="31"/>
       <c r="D559" s="31"/>
       <c r="E559" s="31"/>
@@ -11430,7 +11407,7 @@
       <c r="L559" s="31"/>
       <c r="M559" s="31"/>
     </row>
-    <row r="560" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="560" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C560" s="31"/>
       <c r="D560" s="31"/>
       <c r="E560" s="31"/>
@@ -11443,7 +11420,7 @@
       <c r="L560" s="31"/>
       <c r="M560" s="31"/>
     </row>
-    <row r="561" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="561" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C561" s="31"/>
       <c r="D561" s="31"/>
       <c r="E561" s="31"/>
@@ -11456,7 +11433,7 @@
       <c r="L561" s="31"/>
       <c r="M561" s="31"/>
     </row>
-    <row r="562" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="562" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C562" s="31"/>
       <c r="D562" s="31"/>
       <c r="E562" s="31"/>
@@ -11469,7 +11446,7 @@
       <c r="L562" s="31"/>
       <c r="M562" s="31"/>
     </row>
-    <row r="563" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="563" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C563" s="31"/>
       <c r="D563" s="31"/>
       <c r="E563" s="31"/>
@@ -11482,7 +11459,7 @@
       <c r="L563" s="31"/>
       <c r="M563" s="31"/>
     </row>
-    <row r="564" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="564" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C564" s="31"/>
       <c r="D564" s="31"/>
       <c r="E564" s="31"/>
@@ -11495,7 +11472,7 @@
       <c r="L564" s="31"/>
       <c r="M564" s="31"/>
     </row>
-    <row r="565" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="565" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C565" s="31"/>
       <c r="D565" s="31"/>
       <c r="E565" s="31"/>
@@ -11508,7 +11485,7 @@
       <c r="L565" s="31"/>
       <c r="M565" s="31"/>
     </row>
-    <row r="566" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="566" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C566" s="31"/>
       <c r="D566" s="31"/>
       <c r="E566" s="31"/>
@@ -11521,7 +11498,7 @@
       <c r="L566" s="31"/>
       <c r="M566" s="31"/>
     </row>
-    <row r="567" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="567" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C567" s="31"/>
       <c r="D567" s="31"/>
       <c r="E567" s="31"/>
@@ -11534,7 +11511,7 @@
       <c r="L567" s="31"/>
       <c r="M567" s="31"/>
     </row>
-    <row r="568" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="568" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C568" s="31"/>
       <c r="D568" s="31"/>
       <c r="E568" s="31"/>
@@ -11547,7 +11524,7 @@
       <c r="L568" s="31"/>
       <c r="M568" s="31"/>
     </row>
-    <row r="569" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="569" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C569" s="31"/>
       <c r="D569" s="31"/>
       <c r="E569" s="31"/>
@@ -11560,7 +11537,7 @@
       <c r="L569" s="31"/>
       <c r="M569" s="31"/>
     </row>
-    <row r="570" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="570" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C570" s="31"/>
       <c r="D570" s="31"/>
       <c r="E570" s="31"/>
@@ -11573,7 +11550,7 @@
       <c r="L570" s="31"/>
       <c r="M570" s="31"/>
     </row>
-    <row r="571" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="571" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C571" s="31"/>
       <c r="D571" s="31"/>
       <c r="E571" s="31"/>
@@ -11586,7 +11563,7 @@
       <c r="L571" s="31"/>
       <c r="M571" s="31"/>
     </row>
-    <row r="572" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="572" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C572" s="31"/>
       <c r="D572" s="31"/>
       <c r="E572" s="31"/>
@@ -11599,7 +11576,7 @@
       <c r="L572" s="31"/>
       <c r="M572" s="31"/>
     </row>
-    <row r="573" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="573" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C573" s="31"/>
       <c r="D573" s="31"/>
       <c r="E573" s="31"/>
@@ -11612,7 +11589,7 @@
       <c r="L573" s="31"/>
       <c r="M573" s="31"/>
     </row>
-    <row r="574" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="574" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C574" s="31"/>
       <c r="D574" s="31"/>
       <c r="E574" s="31"/>
@@ -11625,7 +11602,7 @@
       <c r="L574" s="31"/>
       <c r="M574" s="31"/>
     </row>
-    <row r="575" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="575" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C575" s="31"/>
       <c r="D575" s="31"/>
       <c r="E575" s="31"/>
@@ -11638,7 +11615,7 @@
       <c r="L575" s="31"/>
       <c r="M575" s="31"/>
     </row>
-    <row r="576" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="576" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C576" s="31"/>
       <c r="D576" s="31"/>
       <c r="E576" s="31"/>
@@ -11651,7 +11628,7 @@
       <c r="L576" s="31"/>
       <c r="M576" s="31"/>
     </row>
-    <row r="577" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="577" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C577" s="31"/>
       <c r="D577" s="31"/>
       <c r="E577" s="31"/>
@@ -11680,39 +11657,39 @@
       <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="5" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="7" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
         <v>212</v>
       </c>
